--- a/public/preprocessing/@Hastina00.xlsx
+++ b/public/preprocessing/@Hastina00.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16844</v>
+        <v>27613</v>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teguhkanlah dirimu dengan berprinsip kalau orang lain berbuat kebaikan kami berbuat kebaikan pula dan kalu orang </t>
+          <t>rt sekarang adalah peringatan hari isra miraj dan hari diutusnya rasulullah saw momen baik utk kembali menelaah sudah sejauh</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['teguhkanlah', 'dirimu', 'dengan', 'berprinsip', 'kalau', 'orang', 'lain', 'berbuat', 'kebaikan', 'kami', 'berbuat', 'kebaikan', 'pula', 'dan', 'kalu', 'orang']</t>
+          <t>['rt', 'sekarang', 'adalah', 'peringatan', 'hari', 'isra', 'miraj', 'dan', 'hari', 'diutusnya', 'rasulullah', 'saw', 'momen', 'baik', 'utk', 'kembali', 'menelaah', 'sudah', 'sejauh']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'sekarang', 'adalah', 'peringatan', 'hari', 'isra', 'miraj', 'dan', 'hari', 'diutusnya', 'rasulullah', 'saw', 'momen', 'baik', 'untuk', 'kembali', 'menelaah', 'sudah', 'sejauh']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['teguhkanlah', 'dirimu', 'berprinsip', 'orang', 'berbuat', 'kebaikan', 'berbuat', 'kebaikan', 'kalu', 'orang']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['teguh', 'diri', 'prinsip', 'orang', 'buat', 'baik', 'buat', 'baik', 'kalu', 'orang']</t>
+          <t>['peringatan', 'isra', 'miraj', 'diutusnya', 'rasulullah', 'saw', 'momen', 'menelaah']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['ingat', 'isra', 'miraj', 'utus', 'rasulullah', 'saw', 'momen', 'telaah']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16845</v>
+        <v>27614</v>
       </c>
       <c r="C3" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">janganlah kamu menjadi orang yang ikutikutan dengan mengatakan kalau orang lain berbuat kebaikan kami pun akan </t>
+          <t>bangunlah pagi hari untuk mencari rezeki dan kebutuhankebutuhanmu sesungguhnya pada pagi hari terdapat barakah da</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['janganlah', 'kamu', 'menjadi', 'orang', 'yang', 'ikutikutan', 'dengan', 'mengatakan', 'kalau', 'orang', 'lain', 'berbuat', 'kebaikan', 'kami', 'pun', 'akan']</t>
+          <t>['bangunlah', 'pagi', 'hari', 'untuk', 'mencari', 'rezeki', 'dan', 'kebutuhankebutuhanmu', 'sesungguhnya', 'pada', 'pagi', 'hari', 'terdapat', 'barakah', 'da']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['bangunlah', 'pagi', 'hari', 'untuk', 'mencari', 'rezeki', 'dan', 'kebutuhankebutuhanmu', 'sesungguhnya', 'pada', 'pagi', 'hari', 'terdapat', 'barakah', 'dan']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['orang', 'ikutikutan', 'orang', 'berbuat', 'kebaikan']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['orang', 'ikutikutan', 'orang', 'buat', 'baik']</t>
+          <t>['bangunlah', 'pagi', 'mencari', 'rezeki', 'kebutuhankebutuhanmu', 'sesungguhnya', 'pagi', 'barakah']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['bangun', 'pagi', 'cari', 'rezeki', 'kebutuhankebutuhanmu', 'sungguh', 'pagi', 'bara']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16846</v>
+        <v>27615</v>
       </c>
       <c r="C4" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>semoga banjir di kota begasi maupun sekitarnya ceoat surut ya aaamiiin detik ahok gub</t>
+          <t>barang siapa yang tidak mensyukuri yang sedikit maka ia tidak akan mampu mensyukuri sesuatu yang banyak</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['semoga', 'banjir', 'di', 'kota', 'begasi', 'maupun', 'sekitarnya', 'ceoat', 'surut', 'ya', 'aaamiiin', 'detik', 'ahok', 'gub']</t>
+          <t>['barang', 'siapa', 'yang', 'tidak', 'mensyukuri', 'yang', 'sedikit', 'maka', 'ia', 'tidak', 'akan', 'mampu', 'mensyukuri', 'sesuatu', 'yang', 'banyak']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['barang', 'siapa', 'yang', 'tidak', 'mensyukuri', 'yang', 'sedikit', 'maka', 'ia', 'tidak', 'akan', 'mampu', 'mensyukuri', 'sesuatu', 'yang', 'banyak']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['semoga', 'banjir', 'kota', 'begasi', 'ceoat', 'surut', 'aaamiiin', 'detik', 'ahok', 'gub']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['moga', 'banjir', 'kota', 'begasi', 'ceoat', 'surut', 'aaamiiin', 'detik', 'ahok', 'gub']</t>
+          <t>['barang', 'mensyukuri', 'mensyukuri']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['barang', 'syukur', 'syukur']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16847</v>
+        <v>27616</v>
       </c>
       <c r="C5" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> support yixing bitch you dont even know hes in frozen with elsa and anna</t>
+          <t>ketahuilah bahwa kemenangan bersama kesabaran kelapangan bersama kesempitan dan kesulitan bersama kemudahan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['support', 'yixing', 'bitch', 'you', 'dont', 'even', 'know', 'hes', 'in', 'frozen', 'with', 'elsa', 'and', 'anna']</t>
+          <t>['ketahuilah', 'bahwa', 'kemenangan', 'bersama', 'kesabaran', 'kelapangan', 'bersama', 'kesempitan', 'dan', 'kesulitan', 'bersama', 'kemudahan']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ketahuilah', 'bahwa', 'kemenangan', 'bersama', 'kesabaran', 'kelapangan', 'bersama', 'kesempitan', 'dan', 'kesulitan', 'bersama', 'kemudahan']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['support', 'yixing', 'bitch', 'you', 'dont', 'even', 'know', 'hes', 'in', 'frozen', 'with', 'elsa', 'and', 'anna']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['support', 'yixing', 'bitch', 'you', 'dont', 'even', 'know', 'hes', 'in', 'frozen', 'with', 'elsa', 'and', 'anna']</t>
+          <t>['ketahuilah', 'kemenangan', 'kesabaran', 'kelapangan', 'kesempitan', 'kesulitan', 'kemudahan']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['tahu', 'menang', 'sabar', 'lapang', 'sempit', 'sulit', 'mudah']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16848</v>
+        <v>27617</v>
       </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>dont judge by cover detik ahok gubernur tiara</t>
+          <t>demi allah tidaklah kehidupan dunia dibandingkan akhirat melainkan hanya seperti salah satu dari kalian mencelupka</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['dont', 'judge', 'by', 'cover', 'detik', 'ahok', 'gubernur', 'tiara']</t>
+          <t>['demi', 'allah', 'tidaklah', 'kehidupan', 'dunia', 'dibandingkan', 'akhirat', 'melainkan', 'hanya', 'seperti', 'salah', 'satu', 'dari', 'kalian', 'mencelupka']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['demi', 'allah', 'tidaklah', 'kehidupan', 'dunia', 'dibandingkan', 'akhirat', 'melainkan', 'hanya', 'seperti', 'salah', 'satu', 'dari', 'kalian', 'mencelupka']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['dont', 'judge', 'by', 'cover', 'detik', 'ahok', 'gubernur', 'tiara']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['dont', 'judge', 'by', 'cover', 'detik', 'ahok', 'gubernur', 'tiara']</t>
+          <t>['allah', 'kehidupan', 'dunia', 'dibandingkan', 'akhirat', 'salah', 'mencelupka']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['allah', 'hidup', 'dunia', 'banding', 'akhirat', 'salah', 'mencelupka']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16849</v>
+        <v>27618</v>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>wkwkwk jadi ini toh maksud dari detik</t>
+          <t>pupuslah keputusasaan karena apa yang ada pada diri orang lain</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'jadi', 'ini', 'toh', 'maksud', 'dari', 'detik']</t>
+          <t>['pupuslah', 'keputusasaan', 'karena', 'apa', 'yang', 'ada', 'pada', 'diri', 'orang', 'lain']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['pupuslah', 'keputusasaan', 'karena', 'apa', 'yang', 'ada', 'pada', 'diri', 'orang', 'lain']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'maksud', 'detik']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'maksud', 'detik']</t>
+          <t>['pupuslah', 'keputusasaan', 'orang']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['pupus', 'keputusasaan', 'orang']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16850</v>
+        <v>27619</v>
       </c>
       <c r="C8" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>penganut imperialisme selalu melakukan keburukan orang cerdas itu</t>
+          <t>segala pujian atas semua orang yang mengikutimu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['penganut', 'imperialisme', 'selalu', 'melakukan', 'keburukan', 'orang', 'cerdas', 'itu']</t>
+          <t>['segala', 'pujian', 'atas', 'semua', 'orang', 'yang', 'mengikutimu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['segala', 'pujian', 'atas', 'semua', 'orang', 'yang', 'mengikutimu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['penganut', 'imperialisme', 'keburukan', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['anut', 'imperialisme', 'keburu', 'orang', 'cerdas']</t>
+          <t>['pujian', 'orang', 'mengikutimu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['puji', 'orang', 'ikut', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16851</v>
+        <v>27620</v>
       </c>
       <c r="C9" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>batrisyia orangorang yang menganut imperialisme hidupnya selalu serakah orang cerdas itu</t>
+          <t>segala pujian atas sahabatsahabat mu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['batrisyia', 'orangorang', 'yang', 'menganut', 'imperialisme', 'hidupnya', 'selalu', 'serakah', 'orang', 'cerdas', 'itu']</t>
+          <t>['segala', 'pujian', 'atas', 'sahabatsahabat', 'mu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['segala', 'pujian', 'atas', 'sahabatsahabat', 'mu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['batrisyia', 'orangorang', 'menganut', 'imperialisme', 'hidupnya', 'serakah', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['batrisyia', 'orangorang', 'anut', 'imperialisme', 'hidup', 'serakah', 'orang', 'cerdas']</t>
+          <t>['pujian', 'sahabatsahabat', 'mu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['puji', 'sahabatsahabat', 'mu', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16852</v>
+        <v>27621</v>
       </c>
       <c r="C10" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>tidak mendapatkan ketentraman orang cerdas itu</t>
+          <t>segala pujian atas keluargamu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['tidak', 'mendapatkan', 'ketentraman', 'orang', 'cerdas', 'itu']</t>
+          <t>['segala', 'pujian', 'atas', 'keluargamu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['segala', 'pujian', 'atas', 'keluargamu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['ketentraman', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['ketentraman', 'orang', 'cerdas']</t>
+          <t>['pujian', 'keluargamu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['puji', 'keluarga', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16853</v>
+        <v>27622</v>
       </c>
       <c r="C11" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rakyatnya menderita terdzalimi orang cerdas itu</t>
+          <t>segala pujian atas dirimu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rakyatnya', 'menderita', 'terdzalimi', 'orang', 'cerdas', 'itu']</t>
+          <t>['segala', 'pujian', 'atas', 'dirimu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['segala', 'pujian', 'atas', 'dirimu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['rakyatnya', 'menderita', 'terdzalimi', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['rakyat', 'derita', 'terdzalimi', 'orang', 'cerdas']</t>
+          <t>['pujian', 'dirimu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['puji', 'diri', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16854</v>
+        <v>27623</v>
       </c>
       <c r="C12" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>batrisyia amerika dedengkot imperialisme orang cerdas itu</t>
+          <t>senandung maulid nabi bersemayam doa allah tuhanku dan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['batrisyia', 'amerika', 'dedengkot', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['senandung', 'maulid', 'nabi', 'bersemayam', 'doa', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['senandung', 'maulid', 'nabi', 'bersemayam', 'doa', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['batrisyia', 'amerika', 'dedengkot', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['batrisyia', 'amerika', 'dedengkot', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['senandung', 'maulid', 'nabi', 'bersemayam', 'doa', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['senandung', 'maulid', 'nabi', 'semayam', 'doa', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16855</v>
+        <v>27624</v>
       </c>
       <c r="C13" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>amerika penganut imperialisme orang cerdas itu</t>
+          <t>lahirmu ku rayakan pesta allah tuhanku dan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['amerika', 'penganut', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['lahirmu', 'ku', 'rayakan', 'pesta', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['lahirmu', 'ku', 'rayakan', 'pesta', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['amerika', 'penganut', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['amerika', 'anut', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['lahirmu', 'ku', 'rayakan', 'pesta', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['lahir', 'ku', 'raya', 'pesta', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16856</v>
+        <v>27625</v>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> kemenangan umat islam akan terus tegak orang cerdas itu</t>
+          <t>ya rasulullah bawalah aku bersamamu menghadap sang pencipta allah tuhanku dan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['kemenangan', 'umat', 'islam', 'akan', 'terus', 'tegak', 'orang', 'cerdas', 'itu']</t>
+          <t>['ya', 'rasulullah', 'bawalah', 'aku', 'bersamamu', 'menghadap', 'sang', 'pencipta', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ya', 'rasulullah', 'bawalah', 'aku', 'bersamamu', 'menghadap', 'sang', 'pencipta', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['kemenangan', 'umat', 'islam', 'tegak', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['menang', 'umat', 'islam', 'tegak', 'orang', 'cerdas']</t>
+          <t>['rasulullah', 'bawalah', 'bersamamu', 'menghadap', 'sang', 'pencipta', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'bawa', 'sama', 'hadap', 'sang', 'cipta', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16857</v>
+        <v>27626</v>
       </c>
       <c r="C15" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kaum imperialisme akan hancur orang cerdas itu</t>
+          <t>betapa indah akhlaq mu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['kaum', 'imperialisme', 'akan', 'hancur', 'orang', 'cerdas', 'itu']</t>
+          <t>['betapa', 'indah', 'akhlaq', 'mu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['betapa', 'indah', 'akhlaq', 'mu', 'allah', 'tuhanku', 'dan']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['kaum', 'imperialisme', 'hancur', 'orang', 'cerdas']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['kaum', 'imperialisme', 'hancur', 'orang', 'cerdas']</t>
+          <t>['betapa', 'indah', 'akhlaq', 'mu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['betapa', 'indah', 'akhlaq', 'mu', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16858</v>
+        <v>27627</v>
       </c>
       <c r="C16" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> imam khomeini salah satu pahlawan yang menghancurkan kekuatan kaum imperialisme orang cerdas itu</t>
+          <t>betapa baik tutur katamu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['imam', 'khomeini', 'salah', 'satu', 'pahlawan', 'yang', 'menghancurkan', 'kekuatan', 'kaum', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['betapa', 'baik', 'tutur', 'katamu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['betapa', 'baik', 'tutur', 'katamu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['imam', 'khomeini', 'salah', 'pahlawan', 'menghancurkan', 'kekuatan', 'kaum', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['imam', 'khomeini', 'salah', 'pahlawan', 'hancur', 'kuat', 'kaum', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['betapa', 'katamu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['betapa', 'kata', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16859</v>
+        <v>27628</v>
       </c>
       <c r="C17" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>iran contoh salah satu negara yang terus melawan kau imperialisme orang cerdas itu</t>
+          <t>engkau purnama penyinar gelap gulita dunia allah tuhanku dan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['iran', 'contoh', 'salah', 'satu', 'negara', 'yang', 'terus', 'melawan', 'kau', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkau', 'purnama', 'penyinar', 'gelap', 'gulita', 'dunia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['engkau', 'purnama', 'penyinar', 'gelap', 'gulita', 'dunia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['iran', 'contoh', 'salah', 'negara', 'melawan', 'kau', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['iran', 'contoh', 'salah', 'negara', 'lawan', 'kau', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['engkau', 'purnama', 'penyinar', 'gelap', 'gulita', 'dunia', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['engkau', 'purnama', 'sinar', 'gelap', 'gulita', 'dunia', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16860</v>
+        <v>27629</v>
       </c>
       <c r="C18" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>bangsa indonesia tidak bersama dengan kelompok imperialisme orang cerdas itu</t>
+          <t>sinar gemilang menawan dipandang mata allah tuhanku dan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['bangsa', 'indonesia', 'tidak', 'bersama', 'dengan', 'kelompok', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['sinar', 'gemilang', 'menawan', 'dipandang', 'mata', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sinar', 'gemilang', 'menawan', 'dipandang', 'mata', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['bangsa', 'indonesia', 'kelompok', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['bangsa', 'indonesia', 'kelompok', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['sinar', 'gemilang', 'menawan', 'dipandang', 'mata', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['sinar', 'gemilang', 'tawan', 'pandang', 'mata', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16861</v>
+        <v>27630</v>
       </c>
       <c r="C19" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> kami bangsa indonesia lawan kedzaliman orang cerdas itu</t>
+          <t>engkau cahaya purnama di angkasa allah tuhanku dan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['kami', 'bangsa', 'indonesia', 'lawan', 'kedzaliman', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkau', 'cahaya', 'purnama', 'di', 'angkasa', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['engkau', 'cahaya', 'purnama', 'di', 'angkasa', 'allah', 'tuhanku', 'dan']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['bangsa', 'indonesia', 'lawan', 'kedzaliman', 'orang', 'cerdas']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['bangsa', 'indonesia', 'lawan', 'kedzaliman', 'orang', 'cerdas']</t>
+          <t>['engkau', 'cahaya', 'purnama', 'angkasa', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['engkau', 'cahaya', 'purnama', 'angkasa', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16862</v>
+        <v>27631</v>
       </c>
       <c r="C20" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>kekuatan amerika telah di hancurkan oleh revolusi islam iran orang cerdas itu</t>
+          <t>alamin adalah gelarmu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kekuatan', 'amerika', 'telah', 'di', 'hancurkan', 'oleh', 'revolusi', 'islam', 'iran', 'orang', 'cerdas', 'itu']</t>
+          <t>['alamin', 'adalah', 'gelarmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['alamin', 'adalah', 'gelarmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['kekuatan', 'amerika', 'hancurkan', 'revolusi', 'islam', 'iran', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kuat', 'amerika', 'hancur', 'revolusi', 'islam', 'iran', 'orang', 'cerdas']</t>
+          <t>['alamin', 'gelarmu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['alamin', 'gelar', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16863</v>
+        <v>27632</v>
       </c>
       <c r="C21" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> penjajah kita harus lawan orang cerdas itu</t>
+          <t>keagungan sang kuasa bermanifestasi di dalam dirimu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['penjajah', 'kita', 'harus', 'lawan', 'orang', 'cerdas', 'itu']</t>
+          <t>['keagungan', 'sang', 'kuasa', 'bermanifestasi', 'di', 'dalam', 'dirimu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['keagungan', 'sang', 'kuasa', 'bermanifestasi', 'di', 'dalam', 'dirimu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['penjajah', 'lawan', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['jajah', 'lawan', 'orang', 'cerdas']</t>
+          <t>['keagungan', 'sang', 'kuasa', 'bermanifestasi', 'dirimu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['agung', 'sang', 'kuasa', 'manifestasi', 'diri', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16864</v>
+        <v>27633</v>
       </c>
       <c r="C22" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>batrisyia umat islam harus sadar bahwa amerika adalah sang penjajah orang cerdas itu</t>
+          <t>rt barang siapa yang ingin rizkynya lancar perbanyaklah sholawat kpd nabi muhammad saw</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['batrisyia', 'umat', 'islam', 'harus', 'sadar', 'bahwa', 'amerika', 'adalah', 'sang', 'penjajah', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'barang', 'siapa', 'yang', 'ingin', 'rizkynya', 'lancar', 'perbanyaklah', 'sholawat', 'kpd', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'barang', 'siapa', 'yang', 'ingin', 'rizkynya', 'lancar', 'perbanyaklah', 'sholawat', 'kepada', 'nabi', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['batrisyia', 'umat', 'islam', 'sadar', 'amerika', 'sang', 'penjajah', 'orang', 'cerdas']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['batrisyia', 'umat', 'islam', 'sadar', 'amerika', 'sang', 'jajah', 'orang', 'cerdas']</t>
+          <t>['barang', 'rizkynya', 'lancar', 'perbanyaklah', 'sholawat', 'nabi', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['barang', 'rizkynya', 'lancar', 'banyak', 'sholawat', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16865</v>
+        <v>27634</v>
       </c>
       <c r="C23" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sudah tahun revolusi islam di iran tetap kokoh orang cerdas itu</t>
+          <t>rt barang siapa yg ingin cpt nikaah dgn perbnyk sholawat kan di percepat jodohnya aamiin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['sudah', 'tahun', 'revolusi', 'islam', 'di', 'iran', 'tetap', 'kokoh', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'barang', 'siapa', 'yg', 'ingin', 'cpt', 'nikaah', 'dgn', 'perbnyk', 'sholawat', 'kan', 'di', 'percepat', 'jodohnya', 'aamiin']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'barang', 'siapa', 'yang', 'ingin', 'cepat', 'nikah', 'dengan', 'perbnyk', 'sholawat', 'kan', 'di', 'percepat', 'jodohnya', 'amin']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'kokoh', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'kokoh', 'orang', 'cerdas']</t>
+          <t>['barang', 'cepat', 'nikah', 'perbnyk', 'sholawat', 'percepat', 'jodohnya', 'amin']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['barang', 'cepat', 'nikah', 'perbnyk', 'sholawat', 'cepat', 'jodoh', 'amin']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16866</v>
+        <v>27635</v>
       </c>
       <c r="C24" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>amerika negara penjajah orang cerdas itu</t>
+          <t>rt siapa yg ingin dalam segala perkaranya lancar dan sukses perbanyaklah sholawat kepada nabi muhammad saw</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['amerika', 'negara', 'penjajah', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'siapa', 'yg', 'ingin', 'dalam', 'segala', 'perkaranya', 'lancar', 'dan', 'sukses', 'perbanyaklah', 'sholawat', 'kepada', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'siapa', 'yang', 'ingin', 'dalam', 'segala', 'perkaranya', 'lancar', 'dan', 'sukses', 'perbanyaklah', 'sholawat', 'kepada', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['amerika', 'negara', 'penjajah', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['amerika', 'negara', 'jajah', 'orang', 'cerdas']</t>
+          <t>['perkaranya', 'lancar', 'sukses', 'perbanyaklah', 'sholawat', 'nabi', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['perkara', 'lancar', 'sukses', 'banyak', 'sholawat', 'nabi', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16867</v>
+        <v>27636</v>
       </c>
       <c r="C25" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>amerika adalah salah satu negara yang berpaham imperialisme orang cerdas itu</t>
+          <t>rt batrisyia mari beribadah seperti nabi kita</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['amerika', 'adalah', 'salah', 'satu', 'negara', 'yang', 'berpaham', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'batrisyia', 'mari', 'beribadah', 'seperti', 'nabi', 'kita']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'mari', 'beribadah', 'seperti', 'nabi', 'kita']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['amerika', 'salah', 'negara', 'berpaham', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['amerika', 'salah', 'negara', 'paham', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['batrisyia', 'mari', 'beribadah', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'mari', 'ibadah', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16868</v>
+        <v>27637</v>
       </c>
       <c r="C26" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> kaum imperialis harus dilawan orang cerdas itu</t>
+          <t>rt batrisyia cintailah nabi muhammad beserta keluarganya maka hidupmu akan penuh dengan keberkahan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['kaum', 'imperialis', 'harus', 'dilawan', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'batrisyia', 'cintailah', 'nabi', 'muhammad', 'beserta', 'keluarganya', 'maka', 'hidupmu', 'akan', 'penuh', 'dengan', 'keberkahan']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'cintailah', 'nabi', 'muhammad', 'beserta', 'keluarganya', 'maka', 'hidupmu', 'akan', 'penuh', 'dengan', 'keberkahan']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kaum', 'imperialis', 'dilawan', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['kaum', 'imperialis', 'lawan', 'orang', 'cerdas']</t>
+          <t>['batrisyia', 'cintailah', 'nabi', 'muhammad', 'beserta', 'keluarganya', 'hidupmu', 'penuh', 'keberkahan']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'cinta', 'nabi', 'muhammad', 'serta', 'keluarga', 'hidup', 'penuh', 'berkah']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16869</v>
+        <v>27638</v>
       </c>
       <c r="C27" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ruhullah sang revolusioner yang menaklukkan kekuasaan shah di iran orang cerdas itu</t>
+          <t>rt batrisyia nabi muhammad namanya terucap di seluruh penjuru dunia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['ruhullah', 'sang', 'revolusioner', 'yang', 'menaklukkan', 'kekuasaan', 'shah', 'di', 'iran', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'namanya', 'terucap', 'di', 'seluruh', 'penjuru', 'dunia']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'namanya', 'terucap', 'di', 'seluruh', 'penjuru', 'dunia']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ruhullah', 'sang', 'revolusioner', 'menaklukkan', 'kekuasaan', 'shah', 'iran', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ruhullah', 'sang', 'revolusioner', 'takluk', 'kuasa', 'shah', 'iran', 'orang', 'cerdas']</t>
+          <t>['batrisyia', 'nabi', 'muhammad', 'namanya', 'terucap', 'penjuru', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'nabi', 'muhammad', 'nama', 'ucap', 'penjuru', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16870</v>
+        <v>27639</v>
       </c>
       <c r="C28" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>revolusi islam di iran hingga kini tetap kokoh orang cerdas itu</t>
+          <t>rt batrisyia nabi muhammad saw menginginkan umatnya bersatu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'di', 'iran', 'hingga', 'kini', 'tetap', 'kokoh', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'menginginkan', 'umatnya', 'bersatu']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'menginginkan', 'umatnya', 'bersatu']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'kokoh', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'kokoh', 'orang', 'cerdas']</t>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'umatnya', 'bersatu']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'umat', 'satu']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16871</v>
+        <v>27640</v>
       </c>
       <c r="C29" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>tahun kemenangan islam telah diraih oleh seorang tua bernama ruhullah khomeini orang cerdas itu</t>
+          <t>rt nabi saw pertama mengajak keluarganya untuk mentauhidkan tuhan dan orang pertama dari para wanita yg menyatakan keimanan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['tahun', 'kemenangan', 'islam', 'telah', 'diraih', 'oleh', 'seorang', 'tua', 'bernama', 'ruhullah', 'khomeini', 'orang', 'cerdas', 'itu']</t>
+          <t>['rt', 'nabi', 'saw', 'pertama', 'mengajak', 'keluarganya', 'untuk', 'mentauhidkan', 'tuhan', 'dan', 'orang', 'pertama', 'dari', 'para', 'wanita', 'yg', 'menyatakan', 'keimanan']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'nabi', 'saw', 'pertama', 'mengajak', 'keluarganya', 'untuk', 'mentauhidkan', 'tuhan', 'dan', 'orang', 'pertama', 'dari', 'para', 'wanita', 'yang', 'menyatakan', 'keimanan']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['kemenangan', 'islam', 'diraih', 'tua', 'bernama', 'ruhullah', 'khomeini', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['menang', 'islam', 'raih', 'tua', 'nama', 'ruhullah', 'khomeini', 'orang', 'cerdas']</t>
+          <t>['nabi', 'saw', 'mengajak', 'keluarganya', 'mentauhidkan', 'tuhan', 'orang', 'wanita', 'keimanan']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['nabi', 'saw', 'ajak', 'keluarga', 'tauhid', 'tuhan', 'orang', 'wanita', 'iman']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16872</v>
+        <v>27641</v>
       </c>
       <c r="C30" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt keputusan imam khomeini ini telah memberikan kedudukan dan kredibilitas yang tak tergoyahkan bagi republik islam</t>
+          <t>rt nabi muhammad saw di utus sebagai rahmat semesta alam</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'keputusan', 'imam', 'khomeini', 'ini', 'telah', 'memberikan', 'kedudukan', 'dan', 'kredibilitas', 'yang', 'tak', 'tergoyahkan', 'bagi', 'republik', 'islam']</t>
+          <t>['rt', 'nabi', 'muhammad', 'saw', 'di', 'utus', 'sebagai', 'rahmat', 'semesta', 'alam']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'nabi', 'muhammad', 'saw', 'di', 'utus', 'sebagai', 'rahmat', 'semesta', 'alam']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['keputusan', 'imam', 'khomeini', 'kedudukan', 'kredibilitas', 'tergoyahkan', 'republik', 'islam']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['putus', 'imam', 'khomeini', 'duduk', 'kredibilitas', 'goyah', 'republik', 'islam']</t>
+          <t>['nabi', 'muhammad', 'saw', 'utus', 'rahmat', 'semesta', 'alam']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['nabi', 'muhammad', 'saw', 'utus', 'rahmat', 'semesta', 'alam']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16873</v>
+        <v>27642</v>
       </c>
       <c r="C31" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt republik islam di iran adalah contoh unik dari sebuah sistem yang mampu menjaga stabilitas nilainilai dan sumber kekuat</t>
+          <t>rt batrisyia ungkapkan rasa cinta pada nabi dengan meneladaninya</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'republik', 'islam', 'di', 'iran', 'adalah', 'contoh', 'unik', 'dari', 'sebuah', 'sistem', 'yang', 'mampu', 'menjaga', 'stabilitas', 'nilainilai', 'dan', 'sumber', 'kekuat']</t>
+          <t>['rt', 'batrisyia', 'ungkapkan', 'rasa', 'cinta', 'pada', 'nabi', 'dengan', 'meneladaninya']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'ungkapkan', 'rasa', 'cinta', 'pada', 'nabi', 'dengan', 'meneladaninya']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['republik', 'islam', 'iran', 'contoh', 'unik', 'sistem', 'menjaga', 'stabilitas', 'nilainilai', 'sumber', 'kekuat']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['republik', 'islam', 'iran', 'contoh', 'unik', 'sistem', 'jaga', 'stabilitas', 'nilainilai', 'sumber', 'kuat']</t>
+          <t>['batrisyia', 'ungkapkan', 'cinta', 'nabi', 'meneladaninya']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'ungkap', 'cinta', 'nabi', 'teladan']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16874</v>
+        <v>27643</v>
       </c>
       <c r="C32" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt counterviolence against the colonial regime is liberatory because it is an act and by acting the absolute power of colonial</t>
+          <t>rt jika rindu pada nabi muhammad dan ingin berjumpa perbnyklah kpda rasulullah</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'counterviolence', 'against', 'the', 'colonial', 'regime', 'is', 'liberatory', 'because', 'it', 'is', 'an', 'act', 'and', 'by', 'acting', 'the', 'absolute', 'power', 'of', 'colonial']</t>
+          <t>['rt', 'jika', 'rindu', 'pada', 'nabi', 'muhammad', 'dan', 'ingin', 'berjumpa', 'perbnyklah', 'kpda', 'rasulullah']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'jika', 'rindu', 'pada', 'nabi', 'muhammad', 'dan', 'ingin', 'berjumpa', 'perbnyklah', 'kepada', 'rasulullah']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['counterviolence', 'against', 'the', 'colonial', 'regime', 'is', 'liberatory', 'because', 'it', 'is', 'an', 'act', 'and', 'by', 'acting', 'the', 'absolute', 'power', 'of', 'colonial']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['counterviolence', 'against', 'the', 'colonial', 'regime', 'is', 'liberatory', 'because', 'it', 'is', 'an', 'act', 'and', 'by', 'acting', 'the', 'absolute', 'power', 'of', 'colonial']</t>
+          <t>['rindu', 'nabi', 'muhammad', 'berjumpa', 'perbnyklah', 'rasulullah']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['rindu', 'nabi', 'muhammad', 'jumpa', 'perbnyklah', 'rasulullah']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16875</v>
+        <v>27644</v>
       </c>
       <c r="C33" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt imam memimpin perjuangan</t>
+          <t>rt diutusnya nabi memerdekakan para jejiwa yang terpenjara dalam kubang kejahilan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'imam', 'memimpin', 'perjuangan']</t>
+          <t>['rt', 'diutusnya', 'nabi', 'memerdekakan', 'para', 'jejiwa', 'yang', 'terpenjara', 'dalam', 'kubang', 'kejahilan']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'diutusnya', 'nabi', 'memerdekakan', 'para', 'jejiwa', 'yang', 'terpenjara', 'dalam', 'kubang', 'kejahilan']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['imam', 'memimpin', 'perjuangan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['imam', 'pimpin', 'juang']</t>
+          <t>['diutusnya', 'nabi', 'memerdekakan', 'jejiwa', 'terpenjara', 'kubang', 'kejahilan']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['utus', 'nabi', 'merdeka', 'jejiwa', 'penjara', 'kubang', 'jahil']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16876</v>
+        <v>27645</v>
       </c>
       <c r="C34" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt islam muhammadi adalah fondasi revolusi imam khoemini</t>
+          <t>rt bitsah atau mabats adalah peristiwa penobatan muhammad saw sebagai nabi atau rasul untuk menyampaikan risalah islam ke</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'islam', 'muhammadi', 'adalah', 'fondasi', 'revolusi', 'imam', 'khoemini']</t>
+          <t>['rt', 'bitsah', 'atau', 'mabats', 'adalah', 'peristiwa', 'penobatan', 'muhammad', 'saw', 'sebagai', 'nabi', 'atau', 'rasul', 'untuk', 'menyampaikan', 'risalah', 'islam', 'ke']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'bitsah', 'atau', 'mabats', 'adalah', 'peristiwa', 'penobatan', 'muhammad', 'saw', 'sebagai', 'nabi', 'atau', 'rasul', 'untuk', 'menyampaikan', 'risalah', 'islam', 'ke']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['islam', 'muhammadi', 'fondasi', 'revolusi', 'imam', 'khoemini']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['islam', 'muhammad', 'fondasi', 'revolusi', 'imam', 'khoemini']</t>
+          <t>['bitsah', 'mabats', 'peristiwa', 'penobatan', 'muhammad', 'saw', 'nabi', 'rasul', 'risalah', 'islam']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['bitsah', 'mabats', 'peristiwa', 'nobat', 'muhammad', 'saw', 'nabi', 'rasul', 'risalah', 'islam']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16877</v>
+        <v>27646</v>
       </c>
       <c r="C35" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt the association of wealth with whites and poverty with blacks is not accidental it is thenature of theimperialist relations</t>
+          <t>rt bitsah dalam istilah islam berarti satu hari besar dimana nabi muhammad saw dilantik dan diangkat menjadi nabi peristi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'the', 'association', 'of', 'wealth', 'with', 'whites', 'and', 'poverty', 'with', 'blacks', 'is', 'not', 'accidental', 'it', 'is', 'thenature', 'of', 'theimperialist', 'relations']</t>
+          <t>['rt', 'bitsah', 'dalam', 'istilah', 'islam', 'berarti', 'satu', 'hari', 'besar', 'dimana', 'nabi', 'muhammad', 'saw', 'dilantik', 'dan', 'diangkat', 'menjadi', 'nabi', 'peristi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'bitsah', 'dalam', 'istilah', 'islam', 'berarti', 'satu', 'hari', 'besar', 'dimana', 'nabi', 'muhammad', 'saw', 'dilantik', 'dan', 'diangkat', 'menjadi', 'nabi', 'peristi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['the', 'association', 'of', 'wealth', 'with', 'whites', 'and', 'poverty', 'with', 'blacks', 'is', 'not', 'accidental', 'it', 'is', 'thenature', 'of', 'theimperialist', 'relations']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['the', 'association', 'of', 'wealth', 'with', 'whites', 'and', 'poverty', 'with', 'blacks', 'is', 'not', 'accidental', 'it', 'is', 'thenature', 'of', 'theimperialist', 'relations']</t>
+          <t>['bitsah', 'istilah', 'islam', 'dimana', 'nabi', 'muhammad', 'saw', 'dilantik', 'diangkat', 'nabi', 'peristi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['bitsah', 'istilah', 'islam', 'mana', 'nabi', 'muhammad', 'saw', 'lantik', 'angkat', 'nabi', 'peristi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16878</v>
+        <v>27647</v>
       </c>
       <c r="C36" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt iran tak tergantung pada kekuatan dan adikuasa dunia</t>
+          <t>rt sebelum nabi muhammad saw diutus kebanyakan agama yang dianut oleh masyarakat sekitar adalah penyembahan patung atau be</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'iran', 'tak', 'tergantung', 'pada', 'kekuatan', 'dan', 'adikuasa', 'dunia']</t>
+          <t>['rt', 'sebelum', 'nabi', 'muhammad', 'saw', 'diutus', 'kebanyakan', 'agama', 'yang', 'dianut', 'oleh', 'masyarakat', 'sekitar', 'adalah', 'penyembahan', 'patung', 'atau', 'be']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'sebelum', 'nabi', 'muhammad', 'saw', 'diutus', 'kebanyakan', 'agama', 'yang', 'dianut', 'oleh', 'masyarakat', 'sekitar', 'adalah', 'penyembahan', 'patung', 'atau', 'be']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['iran', 'tergantung', 'kekuatan', 'adikuasa', 'dunia']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['iran', 'gantung', 'kuat', 'adikuasa', 'dunia']</t>
+          <t>['nabi', 'muhammad', 'saw', 'diutus', 'kebanyakan', 'agama', 'dianut', 'masyarakat', 'penyembahan', 'patung', 'be']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['nabi', 'muhammad', 'saw', 'utus', 'banyak', 'agama', 'anut', 'masyarakat', 'sembah', 'patung', 'be']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16879</v>
+        <v>27648</v>
       </c>
       <c r="C37" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt sudah tahun revolusi islam di iran tetap kokoh</t>
+          <t>rt batrisyia nabi muhammad saw adalah mata air cahaya kehidupan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'sudah', 'tahun', 'revolusi', 'islam', 'di', 'iran', 'tetap', 'kokoh']</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'adalah', 'mata', 'air', 'cahaya', 'kehidupan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'adalah', 'mata', 'air', 'cahaya', 'kehidupan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'kokoh']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'kokoh']</t>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'mata', 'air', 'cahaya', 'kehidupan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'mata', 'air', 'cahaya', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16880</v>
+        <v>27649</v>
       </c>
       <c r="C38" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt the root of african underdevelopment is of course the establishment of cnial capitalism ini adalah kedzaliman yang ny</t>
+          <t>rt hari mabats rasulullah saw termasuk dari harihari besar islam bagi kaum muslimin dan ini dikenal dengan hari raya mab</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'the', 'root', 'of', 'african', 'underdevelopment', 'is', 'of', 'course', 'the', 'establishment', 'of', 'cnial', 'capitalism', 'ini', 'adalah', 'kedzaliman', 'yang', 'ny']</t>
+          <t>['rt', 'hari', 'mabats', 'rasulullah', 'saw', 'termasuk', 'dari', 'harihari', 'besar', 'islam', 'bagi', 'kaum', 'muslimin', 'dan', 'ini', 'dikenal', 'dengan', 'hari', 'raya', 'mab']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'hari', 'mabats', 'rasulullah', 'saw', 'termasuk', 'dari', 'harihari', 'besar', 'islam', 'bagi', 'kaum', 'muslimin', 'dan', 'ini', 'dikenal', 'dengan', 'hari', 'raya', 'mab']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['the', 'root', 'of', 'african', 'underdevelopment', 'is', 'of', 'course', 'the', 'establishment', 'of', 'cnial', 'capitalism', 'kedzaliman']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['the', 'root', 'of', 'african', 'underdevelopment', 'is', 'of', 'course', 'the', 'establishment', 'of', 'cnial', 'capitalism', 'kedzaliman']</t>
+          <t>['mabats', 'rasulullah', 'saw', 'harihari', 'islam', 'kaum', 'muslimin', 'dikenal', 'raya', 'mab']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['mabats', 'rasulullah', 'saw', 'harihari', 'islam', 'kaum', 'muslimin', 'kenal', 'raya', 'mab']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16881</v>
+        <v>27650</v>
       </c>
       <c r="C39" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt we got rid of colonialism</t>
+          <t>rt dalam istilah agama bitsah adalah pengiriman seorang manusia dari sisi allah swt menuju ke arah manusiamanusia yang la</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'we', 'got', 'rid', 'of', 'colonialism']</t>
+          <t>['rt', 'dalam', 'istilah', 'agama', 'bitsah', 'adalah', 'pengiriman', 'seorang', 'manusia', 'dari', 'sisi', 'allah', 'swt', 'menuju', 'ke', 'arah', 'manusiamanusia', 'yang', 'la']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'istilah', 'agama', 'bitsah', 'adalah', 'pengiriman', 'seorang', 'manusia', 'dari', 'sisi', 'allah', 'subhanahu, wa, taala', 'menuju', 'ke', 'arah', 'manusiamanusia', 'yang', 'lah']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['we', 'got', 'rid', 'of', 'colonialism']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['we', 'got', 'rid', 'of', 'colonialism']</t>
+          <t>['istilah', 'agama', 'bitsah', 'pengiriman', 'manusia', 'sisi', 'allah', 'subhanahu, wa, taala', 'arah', 'manusiamanusia']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['istilah', 'agama', 'bitsah', 'kirim', 'manusia', 'sisi', 'allah', 'subhanahu wa taala', 'arah', 'manusiamanusia']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16882</v>
+        <v>27651</v>
       </c>
       <c r="C40" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt  was mad because  was thinking of the women and the little children running down there all scared and out of breath</t>
+          <t>rt jiwa yang merdeka adalah jiwa yang terlepas dari berhalaberhala duniawi</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'was', 'mad', 'because', 'was', 'thinking', 'of', 'the', 'women', 'and', 'the', 'little', 'children', 'running', 'down', 'there', 'all', 'scared', 'and', 'out', 'of', 'breath']</t>
+          <t>['rt', 'jiwa', 'yang', 'merdeka', 'adalah', 'jiwa', 'yang', 'terlepas', 'dari', 'berhalaberhala', 'duniawi']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'jiwa', 'yang', 'merdeka', 'adalah', 'jiwa', 'yang', 'terlepas', 'dari', 'berhalaberhala', 'duniawi']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['was', 'mad', 'because', 'was', 'thinking', 'of', 'the', 'women', 'and', 'the', 'little', 'children', 'running', 'down', 'there', 'all', 'scared', 'and', 'out', 'of', 'breath']</t>
+          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['was', 'mad', 'because', 'was', 'thinking', 'of', 'the', 'women', 'and', 'the', 'little', 'children', 'running', 'down', 'there', 'all', 'scared', 'and', 'out', 'of', 'breath']</t>
+          <t>['jiwa', 'merdeka', 'jiwa', 'terlepas', 'berhalaberhala', 'duniawi']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['jiwa', 'merdeka', 'jiwa', 'lepas', 'berhalaberhala', 'duniawi']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16883</v>
+        <v>27652</v>
       </c>
       <c r="C41" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt selama tahun terakhir iran di embargo negara barat terutama amerika dan negara di eropa dgn tuduhan membuat senjata</t>
+          <t>rt dalam beberapa surah alquran kata bitsah digunakan untuk makna pembangkitan dan pengutusan para nabi untuk memberi pet</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'selama', 'tahun', 'terakhir', 'iran', 'di', 'embargo', 'negara', 'barat', 'terutama', 'amerika', 'dan', 'negara', 'di', 'eropa', 'dgn', 'tuduhan', 'membuat', 'senjata']</t>
+          <t>['rt', 'dalam', 'beberapa', 'surah', 'alquran', 'kata', 'bitsah', 'digunakan', 'untuk', 'makna', 'pembangkitan', 'dan', 'pengutusan', 'para', 'nabi', 'untuk', 'memberi', 'pet']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'beberapa', 'surah', 'alquran', 'kata', 'bitsah', 'digunakan', 'untuk', 'makna', 'pembangkitan', 'dan', 'pengutusan', 'para', 'nabi', 'untuk', 'memberi', 'pet']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['iran', 'embargo', 'negara', 'barat', 'amerika', 'negara', 'eropa', 'tuduhan', 'senjata']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['iran', 'embargo', 'negara', 'barat', 'amerika', 'negara', 'eropa', 'tuduh', 'senjata']</t>
+          <t>['surah', 'alquran', 'bitsah', 'makna', 'pembangkitan', 'pengutusan', 'nabi', 'pet']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['surah', 'alquran', 'bitsah', 'makna', 'bangkit', 'utus', 'nabi', 'pet']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16884</v>
+        <v>27653</v>
       </c>
       <c r="C42" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt batrisyia cintai perjuangan melawan yang zalim</t>
+          <t>rt penuh kasih dan amanah allah tuhanku dan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'batrisyia', 'cintai', 'perjuangan', 'melawan', 'yang', 'zalim']</t>
+          <t>['rt', 'penuh', 'kasih', 'dan', 'amanah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'penuh', 'kasih', 'dan', 'amanah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['batrisyia', 'cintai', 'perjuangan', 'melawan', 'zalim']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['batrisyia', 'cinta', 'juang', 'lawan', 'zalim']</t>
+          <t>['penuh', 'kasih', 'amanah', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['penuh', 'kasih', 'amanah', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16885</v>
+        <v>27654</v>
       </c>
       <c r="C43" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt suaka untuk orang waras akan kosong di amerika george bernard shaw</t>
+          <t>rt diutusnya nabi muhammad saw menghapus perbudakan yang sudah mengakar dikalangan jahiliyah</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'suaka', 'untuk', 'orang', 'waras', 'akan', 'kosong', 'di', 'amerika', 'george', 'bernard', 'shaw']</t>
+          <t>['rt', 'diutusnya', 'nabi', 'muhammad', 'saw', 'menghapus', 'perbudakan', 'yang', 'sudah', 'mengakar', 'dikalangan', 'jahiliyah']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'diutusnya', 'nabi', 'muhammad', 'saw', 'menghapus', 'perbudakan', 'yang', 'sudah', 'mengakar', 'dikalangan', 'jahiliyah']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['suaka', 'orang', 'waras', 'kosong', 'amerika', 'george', 'bernard', 'shaw']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['suaka', 'orang', 'waras', 'kosong', 'amerika', 'george', 'bernard', 'shaw']</t>
+          <t>['diutusnya', 'nabi', 'muhammad', 'saw', 'menghapus', 'perbudakan', 'mengakar', 'dikalangan', 'jahiliyah']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['utus', 'nabi', 'muhammad', 'saw', 'hapus', 'budak', 'akar', 'kalang', 'jahiliyah']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16886</v>
+        <v>27655</v>
       </c>
       <c r="C44" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt pikiran dan idenya imam khoemini serjalan seiring dengan tindakan perilaku dan ucapannya</t>
+          <t>rt batrisyia mari mencontoh kebaikankebaikan dan akhlak nabi saw</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'pikiran', 'dan', 'idenya', 'imam', 'khoemini', 'serjalan', 'seiring', 'dengan', 'tindakan', 'perilaku', 'dan', 'ucapannya']</t>
+          <t>['rt', 'batrisyia', 'mari', 'mencontoh', 'kebaikankebaikan', 'dan', 'akhlak', 'nabi', 'saw']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'mari', 'mencontoh', 'kebaikankebaikan', 'dan', 'akhlak', 'nabi', 'saw']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['pikiran', 'idenya', 'imam', 'khoemini', 'serjalan', 'seiring', 'tindakan', 'perilaku', 'ucapannya']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['pikir', 'ide', 'imam', 'khoemini', 'serjalan', 'iring', 'tindak', 'perilaku', 'ucap']</t>
+          <t>['batrisyia', 'mari', 'mencontoh', 'kebaikankebaikan', 'akhlak', 'nabi', 'saw']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'mari', 'contoh', 'kebaikankebaikan', 'akhlak', 'nabi', 'saw']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16887</v>
+        <v>27656</v>
       </c>
       <c r="C45" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt revolusi islam isran dalam sekejap mampu melintasi batasbatas geografis dan memancarkan ledakan cahaya terutama bagi dun</t>
+          <t>rt poin yg dapat direnungkan dlm pengutusan para nabi adalah karunia dan anugerah yg allah berikan kpda masyarakat pertama</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'revolusi', 'islam', 'isran', 'dalam', 'sekejap', 'mampu', 'melintasi', 'batasbatas', 'geografis', 'dan', 'memancarkan', 'ledakan', 'cahaya', 'terutama', 'bagi', 'dun']</t>
+          <t>['rt', 'poin', 'yg', 'dapat', 'direnungkan', 'dlm', 'pengutusan', 'para', 'nabi', 'adalah', 'karunia', 'dan', 'anugerah', 'yg', 'allah', 'berikan', 'kpda', 'masyarakat', 'pertama']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'poin', 'yang', 'dapat', 'direnungkan', 'dalam', 'pengutusan', 'para', 'nabi', 'adalah', 'karunia', 'dan', 'anugerah', 'yang', 'allah', 'berikan', 'kepada', 'masyarakat', 'pertama']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'isran', 'sekejap', 'melintasi', 'batasbatas', 'geografis', 'memancarkan', 'ledakan', 'cahaya', 'dun']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'isran', 'kejap', 'lintas', 'batasbatas', 'geografis', 'pancar', 'ledak', 'cahaya', 'dun']</t>
+          <t>['poin', 'direnungkan', 'pengutusan', 'nabi', 'karunia', 'anugerah', 'allah', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['poin', 'renung', 'utus', 'nabi', 'karunia', 'anugerah', 'allah', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16888</v>
+        <v>27657</v>
       </c>
       <c r="C46" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt shah mohammad reza pahlavi menjalankan pemerintahan yang brutal korup dan boros</t>
+          <t>rt diutusnya nabi muhammad saw mengangkat derajat perempuan</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'shah', 'mohammad', 'reza', 'pahlavi', 'menjalankan', 'pemerintahan', 'yang', 'brutal', 'korup', 'dan', 'boros']</t>
+          <t>['rt', 'diutusnya', 'nabi', 'muhammad', 'saw', 'mengangkat', 'derajat', 'perempuan']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'diutusnya', 'nabi', 'muhammad', 'saw', 'mengangkat', 'derajat', 'perempuan']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['shah', 'mohammad', 'reza', 'pahlavi', 'menjalankan', 'pemerintahan', 'brutal', 'korup', 'boros']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['shah', 'mohammad', 'reza', 'pahlavi', 'jalan', 'perintah', 'brutal', 'korup', 'boros']</t>
+          <t>['diutusnya', 'nabi', 'muhammad', 'saw', 'mengangkat', 'derajat', 'perempuan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['utus', 'nabi', 'muhammad', 'saw', 'angkat', 'derajat', 'perempuan']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16889</v>
+        <v>27658</v>
       </c>
       <c r="C47" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt imam pada masa pengasingan di najaf</t>
+          <t>rt nabi muhammad diutus sebagai khabar gembira semesta alam</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'imam', 'pada', 'masa', 'pengasingan', 'di', 'najaf']</t>
+          <t>['rt', 'nabi', 'muhammad', 'diutus', 'sebagai', 'khabar', 'gembira', 'semesta', 'alam']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'nabi', 'muhammad', 'diutus', 'sebagai', 'kabar', 'gembira', 'semesta', 'alam']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['imam', 'pengasingan', 'najaf']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['imam', 'asing', 'najaf']</t>
+          <t>['nabi', 'muhammad', 'diutus', 'kabar', 'gembira', 'semesta', 'alam']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['nabi', 'muhammad', 'utus', 'kabar', 'gembira', 'semesta', 'alam']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16890</v>
+        <v>27659</v>
       </c>
       <c r="C48" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt tahun yang lalu masyarakat iran berhasil menumbangkan rezim otoriter reza shah pahlevi yang saat itu menjadi kaki tang</t>
+          <t>rt rasulullah saw adalah insan suci</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'tahun', 'yang', 'lalu', 'masyarakat', 'iran', 'berhasil', 'menumbangkan', 'rezim', 'otoriter', 'reza', 'shah', 'pahlevi', 'yang', 'saat', 'itu', 'menjadi', 'kaki', 'tang']</t>
+          <t>['rt', 'rasulullah', 'saw', 'adalah', 'insan', 'suci']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'rasulullah', 'saw', 'adalah', 'insan', 'suci']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['masyarakat', 'iran', 'berhasil', 'menumbangkan', 'rezim', 'otoriter', 'reza', 'shah', 'pahlevi', 'kaki', 'tang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['masyarakat', 'iran', 'hasil', 'tumbang', 'rezim', 'otoriter', 'reza', 'shah', 'pahlevi', 'kaki', 'tang']</t>
+          <t>['rasulullah', 'saw', 'insan', 'suci']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'saw', 'insan', 'suci']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16891</v>
+        <v>27660</v>
       </c>
       <c r="C49" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt mask no difficulties mistakes failures</t>
+          <t>rt allah swt mengutus muhammad saw supaya memberikan peringatan kepada seluruh alam dan penjaga amanat bagi wahyunya</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'mask', 'no', 'difficulties', 'mistakes', 'failures']</t>
+          <t>['rt', 'allah', 'swt', 'mengutus', 'muhammad', 'saw', 'supaya', 'memberikan', 'peringatan', 'kepada', 'seluruh', 'alam', 'dan', 'penjaga', 'amanat', 'bagi', 'wahyunya']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'allah', 'subhanahu, wa, taala', 'mengutus', 'muhammad', 'saw', 'supaya', 'memberikan', 'peringatan', 'kepada', 'seluruh', 'alam', 'dan', 'penjaga', 'amanat', 'bagi', 'wahyunya']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['mask', 'no', 'difficulties', 'mistakes', 'failures']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['mask', 'no', 'difficulties', 'mistakes', 'failures']</t>
+          <t>['allah', 'subhanahu, wa, taala', 'mengutus', 'muhammad', 'saw', 'peringatan', 'alam', 'penjaga', 'amanat', 'wahyunya']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['allah', 'subhanahu wa taala', 'utus', 'muhammad', 'saw', 'ingat', 'alam', 'jaga', 'amanat', 'wahyu']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16892</v>
+        <v>27661</v>
       </c>
       <c r="C50" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt imprealiame akan berdampak bahaya bagi bumi ini</t>
+          <t xml:space="preserve">rt upah atas jerih payah nabi menyampaikan risalah allah yang upah itu adalah keharusan kita utk mencintai ahlul baitnya </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'imprealiame', 'akan', 'berdampak', 'bahaya', 'bagi', 'bumi', 'ini']</t>
+          <t>['rt', 'upah', 'atas', 'jerih', 'payah', 'nabi', 'menyampaikan', 'risalah', 'allah', 'yang', 'upah', 'itu', 'adalah', 'keharusan', 'kita', 'utk', 'mencintai', 'ahlul', 'baitnya']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'upah', 'atas', 'jerih', 'payah', 'nabi', 'menyampaikan', 'risalah', 'allah', 'yang', 'upah', 'itu', 'adalah', 'keharusan', 'kita', 'untuk', 'mencintai', 'ahlul', 'baitnya']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['imprealiame', 'berdampak', 'bahaya', 'bumi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['imprealiame', 'dampak', 'bahaya', 'bumi']</t>
+          <t>['upah', 'jerih', 'payah', 'nabi', 'risalah', 'allah', 'upah', 'keharusan', 'mencintai', 'ahlul', 'baitnya']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['upah', 'jerih', 'payah', 'nabi', 'risalah', 'allah', 'upah', 'harus', 'cinta', 'ahlul', 'bait']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16893</v>
+        <v>27662</v>
       </c>
       <c r="C51" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt batrisyia iran selalu ditakuti oleh musuhmusuh islam</t>
+          <t xml:space="preserve">rt sebelum diutusnya nabi muhammad saw pada saat itu makkah sangat mendeskriminasi perempuan setelah diutusnya nabi muhammad </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'batrisyia', 'iran', 'selalu', 'ditakuti', 'oleh', 'musuhmusuh', 'islam']</t>
+          <t>['rt', 'sebelum', 'diutusnya', 'nabi', 'muhammad', 'saw', 'pada', 'saat', 'itu', 'makkah', 'sangat', 'mendeskriminasi', 'perempuan', 'setelah', 'diutusnya', 'nabi', 'muhammad']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'sebelum', 'diutusnya', 'nabi', 'muhammad', 'saw', 'pada', 'saat', 'itu', 'makkah', 'sangat', 'mendeskriminasi', 'perempuan', 'setelah', 'diutusnya', 'nabi', 'muhammad']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['batrisyia', 'iran', 'ditakuti', 'musuhmusuh', 'islam']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['batrisyia', 'iran', 'takut', 'musuhmusuh', 'islam']</t>
+          <t>['diutusnya', 'nabi', 'muhammad', 'saw', 'makkah', 'mendeskriminasi', 'perempuan', 'diutusnya', 'nabi', 'muhammad']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['utus', 'nabi', 'muhammad', 'saw', 'makkah', 'mendeskriminasi', 'perempuan', 'utus', 'nabi', 'muhammad']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16894</v>
+        <v>27663</v>
       </c>
       <c r="C52" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt saya tidak pernah bisa menemukan sesuatu yang memalukan menjadi seorang pria kulit berwarna tetapi saya sering merasa ti</t>
+          <t>rt batrisyia nabi muhammad saw senantiasa di hati kaum muslimin</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'tidak', 'pernah', 'bisa', 'menemukan', 'sesuatu', 'yang', 'memalukan', 'menjadi', 'seorang', 'pria', 'kulit', 'berwarna', 'tetapi', 'saya', 'sering', 'merasa', 'ti']</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'di', 'hati', 'kaum', 'muslimin']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'di', 'hati', 'kaum', 'muslimin']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['menemukan', 'memalukan', 'pria', 'kulit', 'berwarna', 'ti']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['temu', 'malu', 'pria', 'kulit', 'warna', 'ti']</t>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'hati', 'kaum', 'muslimin']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'nabi', 'muhammad', 'saw', 'senantiasa', 'hati', 'kaum', 'muslimin']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16895</v>
+        <v>27664</v>
       </c>
       <c r="C53" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt zahwasfiera negeri persia adalah salah satu negara nuklir canggih yang mengalahkan amerika</t>
+          <t xml:space="preserve">rt upah atas jerih payah nabi menyampaikan risalah allah yang upah itu adalah keharusan kita utk mencintai ahlul baitnya </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'zahwasfiera', 'negeri', 'persia', 'adalah', 'salah', 'satu', 'negara', 'nuklir', 'canggih', 'yang', 'mengalahkan', 'amerika']</t>
+          <t>['rt', 'upah', 'atas', 'jerih', 'payah', 'nabi', 'menyampaikan', 'risalah', 'allah', 'yang', 'upah', 'itu', 'adalah', 'keharusan', 'kita', 'utk', 'mencintai', 'ahlul', 'baitnya']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'upah', 'atas', 'jerih', 'payah', 'nabi', 'menyampaikan', 'risalah', 'allah', 'yang', 'upah', 'itu', 'adalah', 'keharusan', 'kita', 'untuk', 'mencintai', 'ahlul', 'baitnya']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['zahwasfiera', 'negeri', 'persia', 'salah', 'negara', 'nuklir', 'canggih', 'mengalahkan', 'amerika']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['zahwasfiera', 'negeri', 'sia', 'salah', 'negara', 'nuklir', 'canggih', 'kalah', 'amerika']</t>
+          <t>['upah', 'jerih', 'payah', 'nabi', 'risalah', 'allah', 'upah', 'keharusan', 'mencintai', 'ahlul', 'baitnya']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['upah', 'jerih', 'payah', 'nabi', 'risalah', 'allah', 'upah', 'harus', 'cinta', 'ahlul', 'bait']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16896</v>
+        <v>27665</v>
       </c>
       <c r="C54" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt sosok pemimpin paling fenomenal abad seorang ulama faqih filusuf arif dan politisi cerdik</t>
+          <t xml:space="preserve">rt hari ini adalah hari yg paling harus kita syukuri di antara harihari yang lain dalam hidup kita karena di hari inilah </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'sosok', 'pemimpin', 'paling', 'fenomenal', 'abad', 'seorang', 'ulama', 'faqih', 'filusuf', 'arif', 'dan', 'politisi', 'cerdik']</t>
+          <t>['rt', 'hari', 'ini', 'adalah', 'hari', 'yg', 'paling', 'harus', 'kita', 'syukuri', 'di', 'antara', 'harihari', 'yang', 'lain', 'dalam', 'hidup', 'kita', 'karena', 'di', 'hari', 'inilah']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'hari', 'ini', 'adalah', 'hari', 'yang', 'paling', 'harus', 'kita', 'syukuri', 'di', 'antara', 'harihari', 'yang', 'lain', 'dalam', 'hidup', 'kita', 'karena', 'di', 'hari', 'inilah']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['sosok', 'pemimpin', 'fenomenal', 'abad', 'ulama', 'faqih', 'filusuf', 'arif', 'politisi', 'cerdik']</t>
+          <t>&lt;FreqDist with 17 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['sosok', 'pimpin', 'fenomenal', 'abad', 'ulama', 'faqih', 'filusuf', 'arif', 'politis', 'cerdik']</t>
+          <t>['syukuri', 'harihari', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['syukur', 'harihari', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16897</v>
+        <v>27666</v>
       </c>
       <c r="C55" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt imam pada masa pengasingan di neauphlelechteau prancis</t>
+          <t>rt hari ini adalah hari yg paling harus kita syukuri di antara harihari yg lain dalam hidup kita karena di hari inilah all</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'imam', 'pada', 'masa', 'pengasingan', 'di', 'neauphlelechteau', 'prancis']</t>
+          <t>['rt', 'hari', 'ini', 'adalah', 'hari', 'yg', 'paling', 'harus', 'kita', 'syukuri', 'di', 'antara', 'harihari', 'yg', 'lain', 'dalam', 'hidup', 'kita', 'karena', 'di', 'hari', 'inilah', 'all']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'hari', 'ini', 'adalah', 'hari', 'yang', 'paling', 'harus', 'kita', 'syukuri', 'di', 'antara', 'harihari', 'yang', 'lain', 'dalam', 'hidup', 'kita', 'karena', 'di', 'hari', 'inilah', 'all']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['imam', 'pengasingan', 'neauphlelechteau', 'prancis']</t>
+          <t>&lt;FreqDist with 18 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['imam', 'asing', 'neauphlelechteau', 'prancis']</t>
+          <t>['syukuri', 'harihari', 'hidup', 'all']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['syukur', 'harihari', 'hidup', 'all']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16898</v>
+        <v>27667</v>
       </c>
       <c r="C56" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt  state in the grip of neocnialism is not master of its own destiny it is this factor which makes neocnialism suc</t>
+          <t>rt rasulullah saw adalah makhluk mulia</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'state', 'in', 'the', 'grip', 'of', 'neocnialism', 'is', 'not', 'master', 'of', 'its', 'own', 'destiny', 'it', 'is', 'this', 'factor', 'which', 'makes', 'neocnialism', 'suc']</t>
+          <t>['rt', 'rasulullah', 'saw', 'adalah', 'makhluk', 'mulia']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'rasulullah', 'saw', 'adalah', 'makhluk', 'mulia']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['state', 'in', 'the', 'grip', 'of', 'neocnialism', 'is', 'not', 'master', 'of', 'its', 'own', 'destiny', 'it', 'is', 'this', 'factor', 'which', 'makes', 'neocnialism', 'suc']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['state', 'in', 'the', 'grip', 'of', 'neocnialism', 'is', 'not', 'master', 'of', 'its', 'own', 'destiny', 'it', 'is', 'this', 'factor', 'which', 'makes', 'neocnialism', 'suc']</t>
+          <t>['rasulullah', 'saw', 'makhluk', 'mulia']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'saw', 'makhluk', 'mulia']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16899</v>
+        <v>27668</v>
       </c>
       <c r="C57" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt tanggal bahman merupakan momen bersejarah bagi warga iran</t>
+          <t>rt mabats artinya mengutus dan menerima pesan ilahi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'tanggal', 'bahman', 'merupakan', 'momen', 'bersejarah', 'bagi', 'warga', 'iran']</t>
+          <t>['rt', 'mabats', 'artinya', 'mengutus', 'dan', 'menerima', 'pesan', 'ilahi']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'mabats', 'artinya', 'mengutus', 'dan', 'menerima', 'pesan', 'ilahi']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['tanggal', 'bahman', 'momen', 'bersejarah', 'warga', 'iran']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['tanggal', 'bahman', 'momen', 'sejarah', 'warga', 'iran']</t>
+          <t>['mabats', 'mengutus', 'menerima', 'pesan', 'ilahi']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['mabats', 'utus', 'terima', 'pesan', 'ilahi']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16900</v>
+        <v>27669</v>
       </c>
       <c r="C58" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt revolusi islam berdampak besar dan luar biasa bagi dunia</t>
+          <t>rt  love prophet muhammad saw</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'revolusi', 'islam', 'berdampak', 'besar', 'dan', 'luar', 'biasa', 'bagi', 'dunia']</t>
+          <t>['rt', 'love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'berdampak', 'dunia']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'dampak', 'dunia']</t>
+          <t>['love', 'prophet', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16901</v>
+        <v>27670</v>
       </c>
       <c r="C59" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt you in the west must bear in mind that the poor countries are poor primarily because we have exploited them through politic</t>
+          <t>rt  love prophet muhammad saw</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'you', 'in', 'the', 'west', 'must', 'bear', 'in', 'mind', 'that', 'the', 'poor', 'countries', 'are', 'poor', 'primarily', 'because', 'we', 'have', 'exploited', 'them', 'through', 'politic']</t>
+          <t>['rt', 'love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['you', 'in', 'the', 'west', 'must', 'bear', 'in', 'mind', 'that', 'the', 'poor', 'countries', 'are', 'poor', 'primarily', 'because', 'we', 'have', 'exploited', 'them', 'through', 'politic']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['you', 'in', 'the', 'west', 'must', 'bear', 'in', 'mind', 'that', 'the', 'poor', 'countries', 'are', 'poor', 'primarily', 'because', 'we', 'have', 'exploited', 'them', 'through', 'politic']</t>
+          <t>['love', 'prophet', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16902</v>
+        <v>27671</v>
       </c>
       <c r="C60" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt umat islam harus sadar bahwa amerika adalah sang penjajah</t>
+          <t>rt batrisyia  love muhammad</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'umat', 'islam', 'harus', 'sadar', 'bahwa', 'amerika', 'adalah', 'sang', 'penjajah']</t>
+          <t>['rt', 'batrisyia', 'love', 'muhammad']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'love', 'muhammad']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['umat', 'islam', 'sadar', 'amerika', 'sang', 'penjajah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['umat', 'islam', 'sadar', 'amerika', 'sang', 'jajah']</t>
+          <t>['batrisyia', 'love', 'muhammad']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'love', 'muhammad']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16903</v>
+        <v>27672</v>
       </c>
       <c r="C61" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt kebenaran akan selalu menang</t>
+          <t>rt in paradise there are things which no eyes has seen no ears has heard and no human mind has though of saying of prophet muha</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'kebenaran', 'akan', 'selalu', 'menang']</t>
+          <t>['rt', 'in', 'paradise', 'there', 'are', 'things', 'which', 'no', 'eyes', 'has', 'seen', 'no', 'ears', 'has', 'heard', 'and', 'no', 'human', 'mind', 'has', 'though', 'of', 'saying', 'of', 'prophet', 'muha']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'in', 'paradise', 'there', 'are', 'berpikir', 'which', 'no', 'eyes', 'has', 'seen', 'no', 'ears', 'has', 'heard', 'and', 'no', 'human', 'mind', 'has', 'though', 'of', 'saying', 'of', 'prophet', 'muha']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kebenaran', 'menang']</t>
+          <t>&lt;FreqDist with 21 samples and 26 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['benar', 'menang']</t>
+          <t>['in', 'paradise', 'there', 'are', 'berpikir', 'which', 'no', 'eyes', 'has', 'seen', 'no', 'ears', 'has', 'heard', 'and', 'no', 'human', 'mind', 'has', 'though', 'of', 'saying', 'of', 'prophet', 'muha']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['in', 'paradise', 'there', 'are', 'pikir', 'which', 'no', 'eyes', 'has', 'seen', 'no', 'ears', 'has', 'heard', 'and', 'no', 'human', 'mind', 'has', 'though', 'of', 'saying', 'of', 'prophet', 'muha']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16904</v>
+        <v>27673</v>
       </c>
       <c r="C62" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt cnialism is the massive fog that has clouded our imaginations regarding who we could be excised our memories of who we</t>
+          <t>rt batrisyia say shalawat</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'cnialism', 'is', 'the', 'massive', 'fog', 'that', 'has', 'clouded', 'our', 'imaginations', 'regarding', 'who', 'we', 'could', 'be', 'excised', 'our', 'memories', 'of', 'who', 'we']</t>
+          <t>['rt', 'batrisyia', 'say', 'shalawat']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'batrisyia', 'sayang', 'selawat']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['cnialism', 'is', 'the', 'massive', 'fog', 'that', 'has', 'clouded', 'our', 'imaginations', 'regarding', 'who', 'we', 'could', 'be', 'excised', 'our', 'memories', 'of', 'who', 'we']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['cnialism', 'is', 'the', 'massive', 'fog', 'that', 'has', 'clouded', 'our', 'imaginations', 'regarding', 'who', 'we', 'could', 'be', 'excised', 'our', 'memories', 'of', 'who', 'we']</t>
+          <t>['batrisyia', 'sayang', 'selawat']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['batrisyia', 'sayang', 'selawat']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16905</v>
+        <v>27674</v>
       </c>
       <c r="C63" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt revolusi islam iran adalah anugerah ilahi yang patut disyukuri</t>
+          <t>rt the greatest jihad in to battle you own soul to fight the evil within yourself</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'revolusi', 'islam', 'iran', 'adalah', 'anugerah', 'ilahi', 'yang', 'patut', 'disyukuri']</t>
+          <t>['rt', 'the', 'greatest', 'jihad', 'in', 'to', 'battle', 'you', 'own', 'soul', 'to', 'fight', 'the', 'evil', 'within', 'yourself']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'the', 'greatest', 'jihad', 'in', 'to', 'battle', 'kamu', 'own', 'soul', 'to', 'fight', 'the', 'evil', 'within', 'yourself']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'anugerah', 'ilahi', 'patut', 'disyukuri']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'iran', 'anugerah', 'ilahi', 'patut', 'syukur']</t>
+          <t>['the', 'greatest', 'jihad', 'in', 'to', 'battle', 'own', 'soul', 'to', 'fight', 'the', 'evil', 'within', 'yourself']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['the', 'greatest', 'jihad', 'in', 'to', 'battle', 'own', 'soul', 'to', 'fight', 'the', 'evil', 'within', 'yourself']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16906</v>
+        <v>27675</v>
       </c>
       <c r="C64" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt perbaikan nasib ini hanya bisa datang seratus persen bilamana masyarakat sudah tidak ada kapitalisme dan imperialisme</t>
+          <t>rt there will come  time when holding on to your deen will be like holding on to hot coals</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'perbaikan', 'nasib', 'ini', 'hanya', 'bisa', 'datang', 'seratus', 'persen', 'bilamana', 'masyarakat', 'sudah', 'tidak', 'ada', 'kapitalisme', 'dan', 'imperialisme']</t>
+          <t>['rt', 'there', 'will', 'come', 'time', 'when', 'holding', 'on', 'to', 'your', 'deen', 'will', 'be', 'like', 'holding', 'on', 'to', 'hot', 'coals']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'there', 'will', 'come', 'time', 'when', 'holding', 'on', 'to', 'your', 'deen', 'will', 'be', 'like', 'holding', 'on', 'to', 'hot', 'coals']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['perbaikan', 'nasib', 'seratus', 'persen', 'bilamana', 'masyarakat', 'kapitalisme', 'imperialisme']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['baik', 'nasib', 'ratus', 'persen', 'bilamana', 'masyarakat', 'kapitalisme', 'imperialisme']</t>
+          <t>['there', 'will', 'come', 'time', 'when', 'holding', 'on', 'to', 'your', 'deen', 'will', 'be', 'like', 'holding', 'on', 'to', 'hot', 'coals']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['there', 'will', 'come', 'time', 'when', 'holding', 'on', 'to', 'your', 'deen', 'will', 'be', 'like', 'holding', 'on', 'to', 'hot', 'coals']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16907</v>
+        <v>27676</v>
       </c>
       <c r="C65" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt batrisyia amerika menghancurkan perdamaian dunia</t>
+          <t>rt the best richness is the richness of the soul</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'batrisyia', 'amerika', 'menghancurkan', 'perdamaian', 'dunia']</t>
+          <t>['rt', 'the', 'best', 'richness', 'is', 'the', 'richness', 'of', 'the', 'soul']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'the', 'best', 'richness', 'is', 'the', 'richness', 'of', 'the', 'soul']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['batrisyia', 'amerika', 'menghancurkan', 'perdamaian', 'dunia']</t>
+          <t>&lt;FreqDist with 7 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['batrisyia', 'amerika', 'hancur', 'damai', 'dunia']</t>
+          <t>['the', 'best', 'richness', 'is', 'the', 'richness', 'of', 'the', 'soul']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['the', 'best', 'richness', 'is', 'the', 'richness', 'of', 'the', 'soul']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16908</v>
+        <v>27677</v>
       </c>
       <c r="C66" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt iri hati adalah fakta utama kehidupan amerika gore vidal</t>
+          <t>rt we love muhammad</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'iri', 'hati', 'adalah', 'fakta', 'utama', 'kehidupan', 'amerika', 'gore', 'vidal']</t>
+          <t>['rt', 'we', 'love', 'muhammad']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'we', 'love', 'muhammad']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['iri', 'hati', 'fakta', 'utama', 'kehidupan', 'amerika', 'gore', 'vidal']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['iri', 'hati', 'fakta', 'utama', 'hidup', 'amerika', 'gore', 'vidal']</t>
+          <t>['we', 'love', 'muhammad']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['we', 'love', 'muhammad']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16909</v>
+        <v>27678</v>
       </c>
       <c r="C67" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt imam sepulang dari pengasingan</t>
+          <t>rt  love prophet muhammad saw</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'imam', 'sepulang', 'dari', 'pengasingan']</t>
+          <t>['rt', 'love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['rt', 'love', 'prophet', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['imam', 'sepulang', 'pengasingan']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['imam', 'pulang', 'asing']</t>
+          <t>['love', 'prophet', 'muhammad', 'saw']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['love', 'prophet', 'muhammad', 'saw']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16910</v>
+        <v>27679</v>
       </c>
       <c r="C68" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt but cnialism in its harshest forms is not only the exploitation of new nations by old of dark skins by light or the </t>
+          <t>rt sending abundant salawat upon the prophet muhammad salallahu alayhi wasalam is  way to show our gratitude towards him</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'but', 'cnialism', 'in', 'its', 'harshest', 'forms', 'is', 'not', 'only', 'the', 'exploitation', 'of', 'new', 'nations', 'by', 'old', 'of', 'dark', 'skins', 'by', 'light', 'or', 'the']</t>
+          <t>['rt', 'sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['but', 'cnialism', 'in', 'its', 'harshest', 'forms', 'is', 'not', 'only', 'the', 'exploitation', 'of', 'new', 'nations', 'by', 'old', 'of', 'dark', 'skins', 'by', 'light', 'or', 'the']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['but', 'cnialism', 'in', 'its', 'harshest', 'forms', 'is', 'not', 'only', 'the', 'exploitation', 'of', 'new', 'nations', 'by', 'old', 'of', 'dark', 'skins', 'by', 'light', 'or', 'the']</t>
+          <t>['sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['sending', 'abundant', 'salawat', 'upon', 'the', 'prophet', 'muhammad', 'salallahu', 'alayhi', 'wasalam', 'is', 'way', 'to', 'show', 'our', 'gratitude', 'towards', 'him']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16911</v>
+        <v>27680</v>
       </c>
       <c r="C69" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt people are weird when we find someone with weirdness that is compatible with ours we team up and call it love</t>
+          <t>kedamaian selalu muncul disetiap melihatmu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'people', 'are', 'weird', 'when', 'we', 'find', 'someone', 'with', 'weirdness', 'that', 'is', 'compatible', 'with', 'ours', 'we', 'team', 'up', 'and', 'call', 'it', 'love']</t>
+          <t>['kedamaian', 'selalu', 'muncul', 'disetiap', 'melihatmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['kedamaian', 'selalu', 'muncul', 'disetiap', 'melihatmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['people', 'are', 'weird', 'when', 'we', 'find', 'someone', 'with', 'weirdness', 'that', 'is', 'compatible', 'with', 'ours', 'we', 'team', 'up', 'and', 'call', 'it', 'love']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['people', 'are', 'weird', 'when', 'we', 'find', 'someone', 'with', 'weirdness', 'that', 'is', 'compatible', 'with', 'ours', 'we', 'team', 'up', 'and', 'call', 'it', 'love']</t>
+          <t>['kedamaian', 'muncul', 'disetiap', 'melihatmu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['damai', 'muncul', 'tiap', 'lihat', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16912</v>
+        <v>27681</v>
       </c>
       <c r="C70" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt where there is love there is live</t>
+          <t>kelembutan selalu nampak disetiap tindakanmu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'where', 'there', 'is', 'love', 'there', 'is', 'live']</t>
+          <t>['kelembutan', 'selalu', 'nampak', 'disetiap', 'tindakanmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
+          <t>['kelembutan', 'selalu', 'menampak', 'disetiap', 'tindakanmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['where', 'there', 'is', 'love', 'there', 'is', 'live']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['where', 'there', 'is', 'love', 'there', 'is', 'live']</t>
+          <t>['kelembutan', 'menampak', 'disetiap', 'tindakanmu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['lembut', 'tampak', 'tiap', 'tindak', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16913</v>
+        <v>27682</v>
       </c>
       <c r="C71" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt and we know what cnialism means the exploitation and subjugation of the weak by the powerful of the many by the few </t>
+          <t>saat huru hara merajalela engkau datang dengan cahaya membawa sebuah risalah perintahperintah dari yang maha kuasa</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'and', 'we', 'know', 'what', 'cnialism', 'means', 'the', 'exploitation', 'and', 'subjugation', 'of', 'the', 'weak', 'by', 'the', 'powerful', 'of', 'the', 'many', 'by', 'the', 'few']</t>
+          <t>['saat', 'huru', 'hara', 'merajalela', 'engkau', 'datang', 'dengan', 'cahaya', 'membawa', 'sebuah', 'risalah', 'perintahperintah', 'dari', 'yang', 'maha', 'kuasa']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 23 outcomes&gt;</t>
+          <t>['saat', 'huru', 'hara', 'merajalela', 'engkau', 'datang', 'dengan', 'cahaya', 'membawa', 'sebuah', 'risalah', 'perintahperintah', 'dari', 'yang', 'maha', 'kuasa']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['and', 'we', 'know', 'what', 'cnialism', 'means', 'the', 'exploitation', 'and', 'subjugation', 'of', 'the', 'weak', 'by', 'the', 'powerful', 'of', 'the', 'many', 'by', 'the', 'few']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['and', 'we', 'know', 'what', 'cnialism', 'means', 'the', 'exploitation', 'and', 'subjugation', 'of', 'the', 'weak', 'by', 'the', 'powerful', 'of', 'the', 'many', 'by', 'the', 'few']</t>
+          <t>['huru', 'hara', 'merajalela', 'engkau', 'cahaya', 'membawa', 'risalah', 'perintahperintah', 'maha', 'kuasa']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['huru', 'hara', 'rajalela', 'engkau', 'cahaya', 'bawa', 'risalah', 'perintahperintah', 'maha', 'kuasa']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16914</v>
+        <v>27683</v>
       </c>
       <c r="C72" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt after two world wars the collapse of fascism nazism communism and colonialism and the end of the cold war humanity has ent</t>
+          <t>penuh kasih dan amanah allah tuhanku dan</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'after', 'two', 'world', 'wars', 'the', 'collapse', 'of', 'fascism', 'nazism', 'communism', 'and', 'colonialism', 'and', 'the', 'end', 'of', 'the', 'cold', 'war', 'humanity', 'has', 'ent']</t>
+          <t>['penuh', 'kasih', 'dan', 'amanah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 23 outcomes&gt;</t>
+          <t>['penuh', 'kasih', 'dan', 'amanah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['after', 'two', 'world', 'wars', 'the', 'collapse', 'of', 'fascism', 'nazism', 'communism', 'and', 'colonialism', 'and', 'the', 'end', 'of', 'the', 'cold', 'war', 'humanity', 'has', 'ent']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['after', 'two', 'world', 'wars', 'the', 'collapse', 'of', 'fascism', 'nazism', 'communism', 'and', 'colonialism', 'and', 'the', 'end', 'of', 'the', 'cold', 'war', 'humanity', 'has', 'ent']</t>
+          <t>['penuh', 'kasih', 'amanah', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['penuh', 'kasih', 'amanah', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16915</v>
+        <v>27684</v>
       </c>
       <c r="C73" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt at first the colony is perceived as being treacherous its  betrayal ultimately it can be seen as the separation of  part</t>
+          <t>menuntun merekamereka allah tuhanku dan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'at', 'first', 'the', 'colony', 'is', 'perceived', 'as', 'being', 'treacherous', 'its', 'betrayal', 'ultimately', 'it', 'can', 'be', 'seen', 'as', 'the', 'separation', 'of', 'part']</t>
+          <t>['menuntun', 'merekamereka', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['menuntun', 'merekamereka', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['at', 'first', 'the', 'colony', 'is', 'perceived', 'as', 'being', 'treacherous', 'its', 'betrayal', 'ultimately', 'it', 'can', 'be', 'seen', 'as', 'the', 'separation', 'of', 'part']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['at', 'first', 'the', 'colony', 'is', 'perceived', 'as', 'being', 'treacherous', 'its', 'betrayal', 'ultimately', 'it', 'can', 'be', 'seen', 'as', 'the', 'separation', 'of', 'part']</t>
+          <t>['menuntun', 'merekamereka', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['tuntun', 'merekamereka', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16916</v>
+        <v>27685</v>
       </c>
       <c r="C74" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt the history of colonialism is long and bloody and it continues today in the shape of western arrogance visvis everyone el</t>
+          <t>engkau sang pembawa lentera allah tuhanku dan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'the', 'history', 'of', 'colonialism', 'is', 'long', 'and', 'bloody', 'and', 'it', 'continues', 'today', 'in', 'the', 'shape', 'of', 'western', 'arrogance', 'visvis', 'everyone', 'el']</t>
+          <t>['engkau', 'sang', 'pembawa', 'lentera', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['engkau', 'sang', 'pembawa', 'lentera', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['the', 'history', 'of', 'colonialism', 'is', 'long', 'and', 'bloody', 'and', 'it', 'continues', 'today', 'in', 'the', 'shape', 'of', 'western', 'arrogance', 'visvis', 'everyone', 'el']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['the', 'history', 'of', 'colonialism', 'is', 'long', 'and', 'bloody', 'and', 'it', 'continues', 'today', 'in', 'the', 'shape', 'of', 'western', 'arrogance', 'visvis', 'everyone', 'el']</t>
+          <t>['engkau', 'sang', 'pembawa', 'lentera', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['engkau', 'sang', 'bawa', 'lentera', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16917</v>
+        <v>27686</v>
       </c>
       <c r="C75" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt there is  crisis of religious authority world wide and there are many reasons one is colonialism</t>
+          <t>saat gelap gulita allah tuhanku dan</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'there', 'is', 'crisis', 'of', 'religious', 'authority', 'world', 'wide', 'and', 'there', 'are', 'many', 'reasons', 'one', 'is', 'colonialism']</t>
+          <t>['saat', 'gelap', 'gulita', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['saat', 'gelap', 'gulita', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['there', 'is', 'crisis', 'of', 'religious', 'authority', 'world', 'wide', 'and', 'there', 'are', 'many', 'reasons', 'one', 'is', 'colonialism']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['there', 'is', 'crisis', 'of', 'religious', 'authority', 'world', 'wide', 'and', 'there', 'are', 'many', 'reasons', 'one', 'is', 'colonialism']</t>
+          <t>['gelap', 'gulita', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['gelap', 'gulita', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16918</v>
+        <v>27687</v>
       </c>
       <c r="C76" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt we always said that our struggle was not only against the british as representatives of colonialism</t>
+          <t>engkau cahaya di atas cahaya allah tuhanku dan</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'we', 'always', 'said', 'that', 'our', 'struggle', 'was', 'not', 'only', 'against', 'the', 'british', 'as', 'representatives', 'of', 'colonialism']</t>
+          <t>['engkau', 'cahaya', 'di', 'atas', 'cahaya', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['engkau', 'cahaya', 'di', 'atas', 'cahaya', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['we', 'always', 'said', 'that', 'our', 'struggle', 'was', 'not', 'only', 'against', 'the', 'british', 'as', 'representatives', 'of', 'colonialism']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['we', 'always', 'said', 'that', 'our', 'struggle', 'was', 'not', 'only', 'against', 'the', 'british', 'as', 'representatives', 'of', 'colonialism']</t>
+          <t>['engkau', 'cahaya', 'cahaya', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['engkau', 'cahaya', 'cahaya', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16919</v>
+        <v>27688</v>
       </c>
       <c r="C77" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt we are determined that our nation and the world as  whole shall not be the play thing of one small corner of the world</t>
+          <t>engkaulah surya engkaulah purnama allah tuhanku dan</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'we', 'are', 'determined', 'that', 'our', 'nation', 'and', 'the', 'world', 'as', 'whole', 'shall', 'not', 'be', 'the', 'play', 'thing', 'of', 'one', 'small', 'corner', 'of', 'the', 'world']</t>
+          <t>['engkaulah', 'surya', 'engkaulah', 'purnama', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 25 outcomes&gt;</t>
+          <t>['engkaulah', 'surya', 'engkaulah', 'purnama', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['we', 'are', 'determined', 'that', 'our', 'nation', 'and', 'the', 'world', 'as', 'whole', 'shall', 'not', 'be', 'the', 'play', 'thing', 'of', 'one', 'small', 'corner', 'of', 'the', 'world']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['we', 'are', 'determined', 'that', 'our', 'nation', 'and', 'the', 'world', 'as', 'whole', 'shall', 'not', 'be', 'the', 'play', 'thing', 'of', 'one', 'small', 'corner', 'of', 'the', 'world']</t>
+          <t>['engkaulah', 'surya', 'engkaulah', 'purnama', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['engkau', 'surya', 'engkau', 'purnama', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16920</v>
+        <v>27689</v>
       </c>
       <c r="C78" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt congratulations</t>
+          <t>pujaan hati kami kekasih allah allah tuhanku dan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'congratulations']</t>
+          <t>['pujaan', 'hati', 'kami', 'kekasih', 'allah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pujaan', 'hati', 'kami', 'kekasih', 'allah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['congratulations']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['congratulations']</t>
+          <t>['pujaan', 'hati', 'kekasih', 'allah', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['puja', 'hati', 'kasih', 'allah', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16921</v>
+        <v>27690</v>
       </c>
       <c r="C79" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt are you ready to end neocolonialism</t>
+          <t>tumbuhkanlah akhlaqmu dalam hidup kami allah tuhanku dan</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'are', 'you', 'ready', 'to', 'end', 'neocolonialism']</t>
+          <t>['tumbuhkanlah', 'akhlaqmu', 'dalam', 'hidup', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tumbuhkanlah', 'akhlaqmu', 'dalam', 'hidup', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['are', 'you', 'ready', 'to', 'end', 'neocolonialism']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['are', 'you', 'ready', 'to', 'end', 'neocolonialism']</t>
+          <t>['tumbuhkanlah', 'akhlaqmu', 'hidup', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tumbuh', 'akhlaqmu', 'hidup', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16922</v>
+        <v>27691</v>
       </c>
       <c r="C80" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>kaum imperial akan mengorbankan teman sendiri jika sudah tak ada jalan lagi sungguh biadab orang cerdas itu</t>
+          <t>mengalirlah jihadmu dalam hati kami allah tuhanku dan</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['kaum', 'imperial', 'akan', 'mengorbankan', 'teman', 'sendiri', 'jika', 'sudah', 'tak', 'ada', 'jalan', 'lagi', 'sungguh', 'biadab', 'orang', 'cerdas', 'itu']</t>
+          <t>['mengalirlah', 'jihadmu', 'dalam', 'hati', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['mengalirlah', 'jihadmu', 'dalam', 'hati', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kaum', 'imperial', 'mengorbankan', 'teman', 'jalan', 'sungguh', 'biadab', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['kaum', 'imperial', 'korban', 'teman', 'jalan', 'sungguh', 'biadab', 'orang', 'cerdas']</t>
+          <t>['mengalirlah', 'jihadmu', 'hati', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['alir', 'jihad', 'hati', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16923</v>
+        <v>27692</v>
       </c>
       <c r="C81" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>imperialisme takkan bertahan lama karena semua pengikutnya pun berjiwa pengecut orang cerdas itu</t>
+          <t>ajarkanlah ketabahanmu dalam doa kami allah tuhanku dan</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['imperialisme', 'takkan', 'bertahan', 'lama', 'karena', 'semua', 'pengikutnya', 'pun', 'berjiwa', 'pengecut', 'orang', 'cerdas', 'itu']</t>
+          <t>['ajarkanlah', 'ketabahanmu', 'dalam', 'doa', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ajarkanlah', 'ketabahanmu', 'dalam', 'doa', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['imperialisme', 'takkan', 'bertahan', 'pengikutnya', 'berjiwa', 'pengecut', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['imperialisme', 'tak', 'tahan', 'ikut', 'jiwa', 'kecut', 'orang', 'cerdas']</t>
+          <t>['ajarkanlah', 'ketabahanmu', 'doa', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['ajar', 'tabah', 'doa', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16924</v>
+        <v>27693</v>
       </c>
       <c r="C82" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>imperialisme akan jatuh dengan segera orang cerdas itu</t>
+          <t>bagai cahaya kesucian alquran allah tuhanku dan</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['imperialisme', 'akan', 'jatuh', 'dengan', 'segera', 'orang', 'cerdas', 'itu']</t>
+          <t>['bagai', 'cahaya', 'kesucian', 'alquran', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['bagai', 'cahaya', 'kesucian', 'alquran', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['imperialisme', 'jatuh', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['imperialisme', 'jatuh', 'orang', 'cerdas']</t>
+          <t>['cahaya', 'kesucian', 'alquran', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['cahaya', 'suci', 'alquran', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16925</v>
+        <v>27694</v>
       </c>
       <c r="C83" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>revolusi yang murni karena islam sudah bisa dipastikan kemenangannya orang cerdas itu</t>
+          <t>betapa suci akhlaqmu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['revolusi', 'yang', 'murni', 'karena', 'islam', 'sudah', 'bisa', 'dipastikan', 'kemenangannya', 'orang', 'cerdas', 'itu']</t>
+          <t>['betapa', 'suci', 'akhlaqmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['betapa', 'suci', 'akhlaqmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['revolusi', 'murni', 'islam', 'kemenangannya', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['revolusi', 'murni', 'islam', 'menang', 'orang', 'cerdas']</t>
+          <t>['betapa', 'suci', 'akhlaqmu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['betapa', 'suci', 'akhlaqmu', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16926</v>
+        <v>27695</v>
       </c>
       <c r="C84" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>tiada revolusi sehebat dan sekuat revolusi islam orang cerdas itu</t>
+          <t>wahai teladan yang tak pernah padam allah tuhanku dan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['tiada', 'revolusi', 'sehebat', 'dan', 'sekuat', 'revolusi', 'islam', 'orang', 'cerdas', 'itu']</t>
+          <t>['wahai', 'teladan', 'yang', 'tak', 'pernah', 'padam', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['wahai', 'teladan', 'yang', 'tak', 'pernah', 'padam', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['tiada', 'revolusi', 'sehebat', 'sekuat', 'revolusi', 'islam', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['tiada', 'revolusi', 'hebat', 'kuat', 'revolusi', 'islam', 'orang', 'cerdas']</t>
+          <t>['teladan', 'padam', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['teladan', 'padam', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16927</v>
+        <v>27696</v>
       </c>
       <c r="C85" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hak dan batil pada akhirnya akan dimenangkan oleh yang hak walaupun dengan pengorbanan yang begitu dalam orang cer</t>
+          <t>engkaulah mata air hati dan pikiran kami allah tuhanku dan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['hak', 'dan', 'batil', 'pada', 'akhirnya', 'akan', 'dimenangkan', 'oleh', 'yang', 'hak', 'walaupun', 'dengan', 'pengorbanan', 'yang', 'begitu', 'dalam', 'orang', 'cer']</t>
+          <t>['engkaulah', 'mata', 'air', 'hati', 'dan', 'pikiran', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['engkaulah', 'mata', 'air', 'hati', 'dan', 'pikiran', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['hak', 'batil', 'dimenangkan', 'hak', 'pengorbanan', 'orang', 'cer']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['hak', 'batil', 'menang', 'hak', 'korban', 'orang', 'cer']</t>
+          <t>['engkaulah', 'mata', 'air', 'hati', 'pikiran', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['engkau', 'mata', 'air', 'hati', 'pikir', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16928</v>
+        <v>27697</v>
       </c>
       <c r="C86" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>penghadang terbesar imperialisme adalah pergerakan revolusi islam yang murni orang cerdas itu</t>
+          <t>engkaulah petunjuk perjalanan kami allah tuhanku dan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['penghadang', 'terbesar', 'imperialisme', 'adalah', 'pergerakan', 'revolusi', 'islam', 'yang', 'murni', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkaulah', 'petunjuk', 'perjalanan', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['engkaulah', 'petunjuk', 'perjalanan', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['penghadang', 'terbesar', 'imperialisme', 'pergerakan', 'revolusi', 'islam', 'murni', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['penghadang', 'besar', 'imperialisme', 'gera', 'revolusi', 'islam', 'murni', 'orang', 'cerdas']</t>
+          <t>['engkaulah', 'petunjuk', 'perjalanan', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['engkau', 'tunjuk', 'jalan', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16929</v>
+        <v>27698</v>
       </c>
       <c r="C87" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>imperialisme akan menjadi sebuah kenangan belaka jika revolusi islam benar benar terwujud orang cerdas itu</t>
+          <t>engkaulah cermin bagi hidup kami allah tuhanku dan</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['imperialisme', 'akan', 'menjadi', 'sebuah', 'kenangan', 'belaka', 'jika', 'revolusi', 'islam', 'benar', 'benar', 'terwujud', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkaulah', 'cermin', 'bagi', 'hidup', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['engkaulah', 'cermin', 'bagi', 'hidup', 'kami', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['imperialisme', 'kenangan', 'belaka', 'revolusi', 'islam', 'terwujud', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['imperialisme', 'kenang', 'belaka', 'revolusi', 'islam', 'wujud', 'orang', 'cerdas']</t>
+          <t>['engkaulah', 'cermin', 'hidup', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['engkau', 'cermin', 'hidup', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16930</v>
+        <v>27699</v>
       </c>
       <c r="C88" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>revolusi islam takkan bisa terbendung oleh gempuran apapun orang cerdas itu</t>
+          <t>rindu kami padamu sepanjang waktu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'takkan', 'bisa', 'terbendung', 'oleh', 'gempuran', 'apapun', 'orang', 'cerdas', 'itu']</t>
+          <t>['rindu', 'kami', 'padamu', 'sepanjang', 'waktu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rindu', 'kami', 'padamu', 'sepanjang', 'waktu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'takkan', 'terbendung', 'gempuran', 'apapun', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'tak', 'bendung', 'gempur', 'apa', 'orang', 'cerdas']</t>
+          <t>['rindu', 'padamu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['rindu', 'pada', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16931</v>
+        <v>27700</v>
       </c>
       <c r="C89" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>revolusi islam adalah yang menjadi poros pergerakan di seluruh dunia orang cerdas itu</t>
+          <t>bagai cahaya keindahan alquran allah tuhanku dan</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'adalah', 'yang', 'menjadi', 'poros', 'pergerakan', 'di', 'seluruh', 'dunia', 'orang', 'cerdas', 'itu']</t>
+          <t>['bagai', 'cahaya', 'keindahan', 'alquran', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['bagai', 'cahaya', 'keindahan', 'alquran', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'poros', 'pergerakan', 'dunia', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'poros', 'gera', 'dunia', 'orang', 'cerdas']</t>
+          <t>['cahaya', 'keindahan', 'alquran', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['cahaya', 'indah', 'alquran', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16932</v>
+        <v>27701</v>
       </c>
       <c r="C90" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>revolusi islam adalah murni untuk kejayaan islam orang cerdas itu</t>
+          <t>betapa indah akhlaqmu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'adalah', 'murni', 'untuk', 'kejayaan', 'islam', 'orang', 'cerdas', 'itu']</t>
+          <t>['betapa', 'indah', 'akhlaqmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['betapa', 'indah', 'akhlaqmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'murni', 'kejayaan', 'islam', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'murni', 'jaya', 'islam', 'orang', 'cerdas']</t>
+          <t>['betapa', 'indah', 'akhlaqmu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['betapa', 'indah', 'akhlaqmu', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16933</v>
+        <v>27702</v>
       </c>
       <c r="C91" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>bukan revolusi islam namanya jika masih ada kepentingan pribadi di dalamnya orang cerdas itu</t>
+          <t>betapa ramah sikapmu tertanam dalam jiwa allah tuhanku dan</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['bukan', 'revolusi', 'islam', 'namanya', 'jika', 'masih', 'ada', 'kepentingan', 'pribadi', 'di', 'dalamnya', 'orang', 'cerdas', 'itu']</t>
+          <t>['betapa', 'ramah', 'sikapmu', 'tertanam', 'dalam', 'jiwa', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['betapa', 'ramah', 'sikapmu', 'tertanam', 'dalam', 'jiwa', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'namanya', 'kepentingan', 'pribadi', 'dalamnya', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'nama', 'penting', 'pribadi', 'dalam', 'orang', 'cerdas']</t>
+          <t>['betapa', 'ramah', 'sikapmu', 'tertanam', 'jiwa', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['betapa', 'ramah', 'sikap', 'tanam', 'jiwa', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16934</v>
+        <v>27703</v>
       </c>
       <c r="C92" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>revolusi islam menjanjikan sebuah keadilan bagi seluruh negeri orang cerdas itu</t>
+          <t>harum senyummu pada wajah dunia allah tuhanku dan</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'menjanjikan', 'sebuah', 'keadilan', 'bagi', 'seluruh', 'negeri', 'orang', 'cerdas', 'itu']</t>
+          <t>['harum', 'senyummu', 'pada', 'wajah', 'dunia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['harum', 'senyummu', 'pada', 'wajah', 'dunia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'menjanjikan', 'keadilan', 'negeri', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'janji', 'adil', 'negeri', 'orang', 'cerdas']</t>
+          <t>['harum', 'senyummu', 'wajah', 'dunia', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['harum', 'senyum', 'wajah', 'dunia', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16935</v>
+        <v>27704</v>
       </c>
       <c r="C93" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>semua yang dikejar oleh kaum imperial adalah angan angan belaka orang cerdas itu</t>
+          <t>agungnya cintamu menyayangi sesama allah tuhanku dan</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['semua', 'yang', 'dikejar', 'oleh', 'kaum', 'imperial', 'adalah', 'angan', 'angan', 'belaka', 'orang', 'cerdas', 'itu']</t>
+          <t>['agungnya', 'cintamu', 'menyayangi', 'sesama', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['agungnya', 'cintamu', 'menyayangi', 'sesama', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['dikejar', 'kaum', 'imperial', 'angan', 'angan', 'belaka', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['kejar', 'kaum', 'imperial', 'angan', 'angan', 'belaka', 'orang', 'cerdas']</t>
+          <t>['agungnya', 'cintamu', 'menyayangi', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['agung', 'cinta', 'sayang', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16936</v>
+        <v>27705</v>
       </c>
       <c r="C94" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>selama amerika masih terus berusaha menghancurkan islam selama itulah islam akan terus berkembang orang cerdas it</t>
+          <t>besarnya perjuanganmu menegakkan agama allah tuhanku dan</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['selama', 'amerika', 'masih', 'terus', 'berusaha', 'menghancurkan', 'islam', 'selama', 'itulah', 'islam', 'akan', 'terus', 'berkembang', 'orang', 'cerdas', 'it']</t>
+          <t>['besarnya', 'perjuanganmu', 'menegakkan', 'agama', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['besarnya', 'perjuanganmu', 'menegakkan', 'agama', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['amerika', 'berusaha', 'menghancurkan', 'islam', 'islam', 'berkembang', 'orang', 'cerdas', 'it']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['amerika', 'usaha', 'hancur', 'islam', 'islam', 'kembang', 'orang', 'cerdas', 'it']</t>
+          <t>['besarnya', 'perjuanganmu', 'menegakkan', 'agama', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['besar', 'juang', 'tegak', 'agama', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16937</v>
+        <v>27706</v>
       </c>
       <c r="C95" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>revolusi islam takkan pernah padam orang cerdas itu</t>
+          <t>bagai cahaya kemuliaan alquran allah tuhanku dan</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'takkan', 'pernah', 'padam', 'orang', 'cerdas', 'itu']</t>
+          <t>['bagai', 'cahaya', 'kemuliaan', 'alquran', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['bagai', 'cahaya', 'kemuliaan', 'alquran', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'takkan', 'padam', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'tak', 'padam', 'orang', 'cerdas']</t>
+          <t>['cahaya', 'kemuliaan', 'alquran', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['cahaya', 'mulia', 'alquran', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16938</v>
+        <v>27707</v>
       </c>
       <c r="C96" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>revolusi islam adalah sebuah pengabdian pada tuhan yang esa orang cerdas itu</t>
+          <t>betapa mulia akhlaqmu allah tuhanku dan</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'adalah', 'sebuah', 'pengabdian', 'pada', 'tuhan', 'yang', 'esa', 'orang', 'cerdas', 'itu']</t>
+          <t>['betapa', 'mulia', 'akhlaqmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['betapa', 'mulia', 'akhlaqmu', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'pengabdian', 'tuhan', 'esa', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'abdi', 'tuhan', 'esa', 'orang', 'cerdas']</t>
+          <t>['betapa', 'mulia', 'akhlaqmu', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['betapa', 'mulia', 'akhlaqmu', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16939</v>
+        <v>27708</v>
       </c>
       <c r="C97" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>revolusi islam mengajarkan kita keberanian demi tegaknya keadilan orang cerdas itu</t>
+          <t>yaa nabiyallah yaa habiballah allah tuhanku dan</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'mengajarkan', 'kita', 'keberanian', 'demi', 'tegaknya', 'keadilan', 'orang', 'cerdas', 'itu']</t>
+          <t>['yaa', 'nabiyallah', 'yaa', 'habiballah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['ya', 'nabiyallah', 'ya', 'habiballah', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'mengajarkan', 'keberanian', 'tegaknya', 'keadilan', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['revolusi', 'islam', 'ajar', 'berani', 'tegak', 'adil', 'orang', 'cerdas']</t>
+          <t>['nabiyallah', 'habiballah', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['nabiyallah', 'habiballah', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16940</v>
+        <v>27709</v>
       </c>
       <c r="C98" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>kaum penjajah lebih kejam dari pada binatang orang cerdas itu</t>
+          <t>engkaulah cahaya di atas cahaya allah tuhanku dan</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['kaum', 'penjajah', 'lebih', 'kejam', 'dari', 'pada', 'binatang', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkaulah', 'cahaya', 'di', 'atas', 'cahaya', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['engkaulah', 'cahaya', 'di', 'atas', 'cahaya', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['kaum', 'penjajah', 'kejam', 'binatang', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['kaum', 'jajah', 'kejam', 'binatang', 'orang', 'cerdas']</t>
+          <t>['engkaulah', 'cahaya', 'cahaya', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['engkau', 'cahaya', 'cahaya', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16941</v>
+        <v>27710</v>
       </c>
       <c r="C99" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>kaum imperial telah keluar dari batas kemanusiaannya orang cerdas itu</t>
+          <t>engkaulah purnama penerang gelapnya jiwa manusia allah tuhanku dan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['kaum', 'imperial', 'telah', 'keluar', 'dari', 'batas', 'kemanusiaannya', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkaulah', 'purnama', 'penerang', 'gelapnya', 'jiwa', 'manusia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['engkaulah', 'purnama', 'penerang', 'gelapnya', 'jiwa', 'manusia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['kaum', 'imperial', 'batas', 'kemanusiaannya', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['kaum', 'imperial', 'batas', 'manusia', 'orang', 'cerdas']</t>
+          <t>['engkaulah', 'purnama', 'penerang', 'gelapnya', 'jiwa', 'manusia', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['engkau', 'purnama', 'terang', 'gelap', 'jiwa', 'manusia', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16942</v>
+        <v>27711</v>
       </c>
       <c r="C100" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>imperialisme bahkan lebih kejam dari sifat binatang orang cerdas itu</t>
+          <t>engkaulah surya yang menyinari kelamnya hati manusia allah tuhanku dan</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['imperialisme', 'bahkan', 'lebih', 'kejam', 'dari', 'sifat', 'binatang', 'orang', 'cerdas', 'itu']</t>
+          <t>['engkaulah', 'surya', 'yang', 'menyinari', 'kelamnya', 'hati', 'manusia', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['engkaulah', 'surya', 'yang', 'menyinari', 'kelamnya', 'hati', 'manusia', 'allah', 'tuhanku', 'dan']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['imperialisme', 'kejam', 'sifat', 'binatang', 'orang', 'cerdas']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['imperialisme', 'kejam', 'sifat', 'binatang', 'orang', 'cerdas']</t>
+          <t>['engkaulah', 'surya', 'menyinari', 'kelamnya', 'hati', 'manusia', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['engkau', 'surya', 'sari', 'kelam', 'hati', 'manusia', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16943</v>
+        <v>27712</v>
       </c>
       <c r="C101" t="n">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>tujuan revolusi islam adalah membasmi imperialisme orang cerdas itu</t>
+          <t>semoga kami mati dalam keadaan mencintaimu ya muhammad allah tuhanku dan</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['tujuan', 'revolusi', 'islam', 'adalah', 'membasmi', 'imperialisme', 'orang', 'cerdas', 'itu']</t>
+          <t>['semoga', 'kami', 'mati', 'dalam', 'keadaan', 'mencintaimu', 'ya', 'muhammad', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['semoga', 'kami', 'mati', 'dalam', 'keadaan', 'mencintaimu', 'ya', 'muhammad', 'allah', 'tuhanku', 'dan']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['tujuan', 'revolusi', 'islam', 'membasmi', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['tuju', 'revolusi', 'islam', 'basmi', 'imperialisme', 'orang', 'cerdas']</t>
+          <t>['semoga', 'mati', 'mencintaimu', 'muhammad', 'allah', 'tuhanku']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['moga', 'mati', 'cinta', 'muhammad', 'allah', 'tuhan']</t>
         </is>
       </c>
     </row>
